--- a/src/source/codelijst-source.xlsx
+++ b/src/source/codelijst-source.xlsx
@@ -1196,16 +1196,16 @@
   </sheetPr>
   <dimension ref="A1:O198"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E179" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H205" activeCellId="0" sqref="H205"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E178" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G201" activeCellId="0" sqref="G201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.19140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="38.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="51.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="51.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1445,7 +1445,7 @@
         <v>32</v>
       </c>
       <c r="G15" s="0" t="str">
-        <f aca="false">IF(H15="", "eigen", H15)</f>
+        <f aca="false">IF(H15="", "zorgwekkende_stof:eigen", H15)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H15" s="0" t="str">
@@ -1478,7 +1478,7 @@
         <v>34</v>
       </c>
       <c r="G16" s="0" t="str">
-        <f aca="false">IF(H16="", "eigen", H16)</f>
+        <f aca="false">IF(H16="", "zorgwekkende_stof:eigen", H16)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H16" s="0" t="str">
@@ -1511,7 +1511,7 @@
         <v>36</v>
       </c>
       <c r="G17" s="0" t="str">
-        <f aca="false">IF(H17="", "eigen", H17)</f>
+        <f aca="false">IF(H17="", "zorgwekkende_stof:eigen", H17)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H17" s="0" t="str">
@@ -1544,7 +1544,7 @@
         <v>37</v>
       </c>
       <c r="G18" s="0" t="str">
-        <f aca="false">IF(H18="", "eigen", H18)</f>
+        <f aca="false">IF(H18="", "zorgwekkende_stof:eigen", H18)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H18" s="0" t="str">
@@ -1577,7 +1577,7 @@
         <v>39</v>
       </c>
       <c r="G19" s="0" t="str">
-        <f aca="false">IF(H19="", "eigen", H19)</f>
+        <f aca="false">IF(H19="", "zorgwekkende_stof:eigen", H19)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H19" s="0" t="str">
@@ -1610,7 +1610,7 @@
         <v>41</v>
       </c>
       <c r="G20" s="0" t="str">
-        <f aca="false">IF(H20="", "eigen", H20)</f>
+        <f aca="false">IF(H20="", "zorgwekkende_stof:eigen", H20)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H20" s="0" t="str">
@@ -1646,7 +1646,7 @@
         <v>43</v>
       </c>
       <c r="G21" s="0" t="str">
-        <f aca="false">IF(H21="", "eigen", H21)</f>
+        <f aca="false">IF(H21="", "zorgwekkende_stof:eigen", H21)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H21" s="0" t="str">
@@ -1679,8 +1679,8 @@
         <v>45</v>
       </c>
       <c r="G22" s="0" t="str">
-        <f aca="false">IF(H22="", "eigen", H22)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H22="", "zorgwekkende_stof:eigen", H22)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H22" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K22), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L22), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M22), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N22), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O22), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -1709,7 +1709,7 @@
         <v>47</v>
       </c>
       <c r="G23" s="0" t="str">
-        <f aca="false">IF(H23="", "eigen", H23)</f>
+        <f aca="false">IF(H23="", "zorgwekkende_stof:eigen", H23)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H23" s="0" t="str">
@@ -1745,8 +1745,8 @@
         <v>49</v>
       </c>
       <c r="G24" s="0" t="str">
-        <f aca="false">IF(H24="", "eigen", H24)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H24="", "zorgwekkende_stof:eigen", H24)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H24" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K24), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L24), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M24), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N24), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O24), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -1775,7 +1775,7 @@
         <v>51</v>
       </c>
       <c r="G25" s="0" t="str">
-        <f aca="false">IF(H25="", "eigen", H25)</f>
+        <f aca="false">IF(H25="", "zorgwekkende_stof:eigen", H25)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H25" s="0" t="str">
@@ -1808,7 +1808,7 @@
         <v>53</v>
       </c>
       <c r="G26" s="0" t="str">
-        <f aca="false">IF(H26="", "eigen", H26)</f>
+        <f aca="false">IF(H26="", "zorgwekkende_stof:eigen", H26)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H26" s="0" t="str">
@@ -1841,7 +1841,7 @@
         <v>54</v>
       </c>
       <c r="G27" s="0" t="str">
-        <f aca="false">IF(H27="", "eigen", H27)</f>
+        <f aca="false">IF(H27="", "zorgwekkende_stof:eigen", H27)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H27" s="0" t="str">
@@ -1874,7 +1874,7 @@
         <v>56</v>
       </c>
       <c r="G28" s="0" t="str">
-        <f aca="false">IF(H28="", "eigen", H28)</f>
+        <f aca="false">IF(H28="", "zorgwekkende_stof:eigen", H28)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H28" s="0" t="str">
@@ -1907,7 +1907,7 @@
         <v>58</v>
       </c>
       <c r="G29" s="0" t="str">
-        <f aca="false">IF(H29="", "eigen", H29)</f>
+        <f aca="false">IF(H29="", "zorgwekkende_stof:eigen", H29)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H29" s="0" t="str">
@@ -1940,7 +1940,7 @@
         <v>60</v>
       </c>
       <c r="G30" s="0" t="str">
-        <f aca="false">IF(H30="", "eigen", H30)</f>
+        <f aca="false">IF(H30="", "zorgwekkende_stof:eigen", H30)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H30" s="0" t="str">
@@ -1973,7 +1973,7 @@
         <v>61</v>
       </c>
       <c r="G31" s="0" t="str">
-        <f aca="false">IF(H31="", "eigen", H31)</f>
+        <f aca="false">IF(H31="", "zorgwekkende_stof:eigen", H31)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H31" s="0" t="str">
@@ -2006,7 +2006,7 @@
         <v>63</v>
       </c>
       <c r="G32" s="0" t="str">
-        <f aca="false">IF(H32="", "eigen", H32)</f>
+        <f aca="false">IF(H32="", "zorgwekkende_stof:eigen", H32)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H32" s="0" t="str">
@@ -2042,7 +2042,7 @@
         <v>65</v>
       </c>
       <c r="G33" s="0" t="str">
-        <f aca="false">IF(H33="", "eigen", H33)</f>
+        <f aca="false">IF(H33="", "zorgwekkende_stof:eigen", H33)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H33" s="0" t="str">
@@ -2075,7 +2075,7 @@
         <v>67</v>
       </c>
       <c r="G34" s="0" t="str">
-        <f aca="false">IF(H34="", "eigen", H34)</f>
+        <f aca="false">IF(H34="", "zorgwekkende_stof:eigen", H34)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H34" s="0" t="str">
@@ -2108,7 +2108,7 @@
         <v>69</v>
       </c>
       <c r="G35" s="0" t="str">
-        <f aca="false">IF(H35="", "eigen", H35)</f>
+        <f aca="false">IF(H35="", "zorgwekkende_stof:eigen", H35)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H35" s="0" t="str">
@@ -2141,7 +2141,7 @@
         <v>70</v>
       </c>
       <c r="G36" s="0" t="str">
-        <f aca="false">IF(H36="", "eigen", H36)</f>
+        <f aca="false">IF(H36="", "zorgwekkende_stof:eigen", H36)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H36" s="0" t="str">
@@ -2174,7 +2174,7 @@
         <v>72</v>
       </c>
       <c r="G37" s="0" t="str">
-        <f aca="false">IF(H37="", "eigen", H37)</f>
+        <f aca="false">IF(H37="", "zorgwekkende_stof:eigen", H37)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H37" s="0" t="str">
@@ -2207,7 +2207,7 @@
         <v>74</v>
       </c>
       <c r="G38" s="0" t="str">
-        <f aca="false">IF(H38="", "eigen", H38)</f>
+        <f aca="false">IF(H38="", "zorgwekkende_stof:eigen", H38)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H38" s="0" t="str">
@@ -2240,7 +2240,7 @@
         <v>75</v>
       </c>
       <c r="G39" s="0" t="str">
-        <f aca="false">IF(H39="", "eigen", H39)</f>
+        <f aca="false">IF(H39="", "zorgwekkende_stof:eigen", H39)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H39" s="0" t="str">
@@ -2273,7 +2273,7 @@
         <v>77</v>
       </c>
       <c r="G40" s="0" t="str">
-        <f aca="false">IF(H40="", "eigen", H40)</f>
+        <f aca="false">IF(H40="", "zorgwekkende_stof:eigen", H40)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H40" s="0" t="str">
@@ -2306,7 +2306,7 @@
         <v>78</v>
       </c>
       <c r="G41" s="0" t="str">
-        <f aca="false">IF(H41="", "eigen", H41)</f>
+        <f aca="false">IF(H41="", "zorgwekkende_stof:eigen", H41)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H41" s="0" t="str">
@@ -2339,8 +2339,8 @@
         <v>80</v>
       </c>
       <c r="G42" s="0" t="str">
-        <f aca="false">IF(H42="", "eigen", H42)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H42="", "zorgwekkende_stof:eigen", H42)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H42" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K42), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L42), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M42), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N42), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O42), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -2369,7 +2369,7 @@
         <v>82</v>
       </c>
       <c r="G43" s="0" t="str">
-        <f aca="false">IF(H43="", "eigen", H43)</f>
+        <f aca="false">IF(H43="", "zorgwekkende_stof:eigen", H43)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H43" s="0" t="str">
@@ -2402,8 +2402,8 @@
         <v>84</v>
       </c>
       <c r="G44" s="0" t="str">
-        <f aca="false">IF(H44="", "eigen", H44)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H44="", "zorgwekkende_stof:eigen", H44)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H44" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K44), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L44), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M44), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N44), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O44), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -2432,8 +2432,8 @@
         <v>86</v>
       </c>
       <c r="G45" s="0" t="str">
-        <f aca="false">IF(H45="", "eigen", H45)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H45="", "zorgwekkende_stof:eigen", H45)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H45" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K45), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L45), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M45), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N45), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O45), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -2462,8 +2462,8 @@
         <v>88</v>
       </c>
       <c r="G46" s="0" t="str">
-        <f aca="false">IF(H46="", "eigen", H46)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H46="", "zorgwekkende_stof:eigen", H46)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H46" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K46), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L46), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M46), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N46), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O46), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -2492,8 +2492,8 @@
         <v>90</v>
       </c>
       <c r="G47" s="0" t="str">
-        <f aca="false">IF(H47="", "eigen", H47)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H47="", "zorgwekkende_stof:eigen", H47)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H47" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K47), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L47), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M47), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N47), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O47), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -2522,8 +2522,8 @@
         <v>92</v>
       </c>
       <c r="G48" s="0" t="str">
-        <f aca="false">IF(H48="", "eigen", H48)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H48="", "zorgwekkende_stof:eigen", H48)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H48" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K48), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L48), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M48), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N48), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O48), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -2552,8 +2552,8 @@
         <v>94</v>
       </c>
       <c r="G49" s="0" t="str">
-        <f aca="false">IF(H49="", "eigen", H49)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H49="", "zorgwekkende_stof:eigen", H49)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H49" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K49), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L49), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M49), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N49), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O49), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -2582,8 +2582,8 @@
         <v>96</v>
       </c>
       <c r="G50" s="0" t="str">
-        <f aca="false">IF(H50="", "eigen", H50)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H50="", "zorgwekkende_stof:eigen", H50)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H50" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K50), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L50), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M50), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N50), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O50), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -2612,8 +2612,8 @@
         <v>98</v>
       </c>
       <c r="G51" s="0" t="str">
-        <f aca="false">IF(H51="", "eigen", H51)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H51="", "zorgwekkende_stof:eigen", H51)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H51" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K51), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L51), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M51), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N51), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O51), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -2642,8 +2642,8 @@
         <v>100</v>
       </c>
       <c r="G52" s="0" t="str">
-        <f aca="false">IF(H52="", "eigen", H52)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H52="", "zorgwekkende_stof:eigen", H52)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H52" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K52), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L52), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M52), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N52), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O52), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -2672,8 +2672,8 @@
         <v>102</v>
       </c>
       <c r="G53" s="0" t="str">
-        <f aca="false">IF(H53="", "eigen", H53)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H53="", "zorgwekkende_stof:eigen", H53)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H53" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K53), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L53), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M53), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N53), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O53), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -2702,8 +2702,8 @@
         <v>104</v>
       </c>
       <c r="G54" s="0" t="str">
-        <f aca="false">IF(H54="", "eigen", H54)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H54="", "zorgwekkende_stof:eigen", H54)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H54" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K54), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L54), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M54), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N54), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O54), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -2732,8 +2732,8 @@
         <v>106</v>
       </c>
       <c r="G55" s="0" t="str">
-        <f aca="false">IF(H55="", "eigen", H55)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H55="", "zorgwekkende_stof:eigen", H55)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H55" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K55), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L55), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M55), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N55), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O55), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -2762,8 +2762,8 @@
         <v>108</v>
       </c>
       <c r="G56" s="0" t="str">
-        <f aca="false">IF(H56="", "eigen", H56)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H56="", "zorgwekkende_stof:eigen", H56)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H56" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K56), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L56), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M56), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N56), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O56), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -2792,8 +2792,8 @@
         <v>110</v>
       </c>
       <c r="G57" s="0" t="str">
-        <f aca="false">IF(H57="", "eigen", H57)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H57="", "zorgwekkende_stof:eigen", H57)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H57" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K57), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L57), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M57), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N57), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O57), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -2822,8 +2822,8 @@
         <v>112</v>
       </c>
       <c r="G58" s="0" t="str">
-        <f aca="false">IF(H58="", "eigen", H58)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H58="", "zorgwekkende_stof:eigen", H58)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H58" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K58), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L58), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M58), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N58), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O58), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -2852,8 +2852,8 @@
         <v>114</v>
       </c>
       <c r="G59" s="0" t="str">
-        <f aca="false">IF(H59="", "eigen", H59)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H59="", "zorgwekkende_stof:eigen", H59)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H59" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K59), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L59), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M59), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N59), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O59), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -2882,8 +2882,8 @@
         <v>116</v>
       </c>
       <c r="G60" s="0" t="str">
-        <f aca="false">IF(H60="", "eigen", H60)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H60="", "zorgwekkende_stof:eigen", H60)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H60" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K60), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L60), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M60), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N60), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O60), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -2912,7 +2912,7 @@
         <v>118</v>
       </c>
       <c r="G61" s="0" t="str">
-        <f aca="false">IF(H61="", "eigen", H61)</f>
+        <f aca="false">IF(H61="", "zorgwekkende_stof:eigen", H61)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H61" s="0" t="str">
@@ -2945,8 +2945,8 @@
         <v>120</v>
       </c>
       <c r="G62" s="0" t="str">
-        <f aca="false">IF(H62="", "eigen", H62)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H62="", "zorgwekkende_stof:eigen", H62)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H62" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K62), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L62), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M62), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N62), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O62), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -2975,8 +2975,8 @@
         <v>122</v>
       </c>
       <c r="G63" s="0" t="str">
-        <f aca="false">IF(H63="", "eigen", H63)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H63="", "zorgwekkende_stof:eigen", H63)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H63" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K63), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L63), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M63), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N63), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O63), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -3005,8 +3005,8 @@
         <v>124</v>
       </c>
       <c r="G64" s="0" t="str">
-        <f aca="false">IF(H64="", "eigen", H64)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H64="", "zorgwekkende_stof:eigen", H64)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H64" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K64), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L64), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M64), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N64), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O64), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -3035,7 +3035,7 @@
         <v>126</v>
       </c>
       <c r="G65" s="0" t="str">
-        <f aca="false">IF(H65="", "eigen", H65)</f>
+        <f aca="false">IF(H65="", "zorgwekkende_stof:eigen", H65)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H65" s="0" t="str">
@@ -3068,7 +3068,7 @@
         <v>128</v>
       </c>
       <c r="G66" s="0" t="str">
-        <f aca="false">IF(H66="", "eigen", H66)</f>
+        <f aca="false">IF(H66="", "zorgwekkende_stof:eigen", H66)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H66" s="0" t="str">
@@ -3101,8 +3101,8 @@
         <v>130</v>
       </c>
       <c r="G67" s="0" t="str">
-        <f aca="false">IF(H67="", "eigen", H67)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H67="", "zorgwekkende_stof:eigen", H67)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H67" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K67), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L67), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M67), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N67), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O67), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -3131,7 +3131,7 @@
         <v>132</v>
       </c>
       <c r="G68" s="0" t="str">
-        <f aca="false">IF(H68="", "eigen", H68)</f>
+        <f aca="false">IF(H68="", "zorgwekkende_stof:eigen", H68)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H68" s="0" t="str">
@@ -3164,8 +3164,8 @@
         <v>134</v>
       </c>
       <c r="G69" s="0" t="str">
-        <f aca="false">IF(H69="", "eigen", H69)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H69="", "zorgwekkende_stof:eigen", H69)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H69" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K69), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L69), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M69), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N69), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O69), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -3194,8 +3194,8 @@
         <v>136</v>
       </c>
       <c r="G70" s="0" t="str">
-        <f aca="false">IF(H70="", "eigen", H70)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H70="", "zorgwekkende_stof:eigen", H70)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H70" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K70), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L70), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M70), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N70), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O70), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -3224,7 +3224,7 @@
         <v>138</v>
       </c>
       <c r="G71" s="0" t="str">
-        <f aca="false">IF(H71="", "eigen", H71)</f>
+        <f aca="false">IF(H71="", "zorgwekkende_stof:eigen", H71)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H71" s="0" t="str">
@@ -3257,8 +3257,8 @@
         <v>140</v>
       </c>
       <c r="G72" s="0" t="str">
-        <f aca="false">IF(H72="", "eigen", H72)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H72="", "zorgwekkende_stof:eigen", H72)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H72" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K72), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L72), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M72), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N72), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O72), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -3287,7 +3287,7 @@
         <v>142</v>
       </c>
       <c r="G73" s="0" t="str">
-        <f aca="false">IF(H73="", "eigen", H73)</f>
+        <f aca="false">IF(H73="", "zorgwekkende_stof:eigen", H73)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H73" s="0" t="str">
@@ -3326,7 +3326,7 @@
         <v>144</v>
       </c>
       <c r="G74" s="0" t="str">
-        <f aca="false">IF(H74="", "eigen", H74)</f>
+        <f aca="false">IF(H74="", "zorgwekkende_stof:eigen", H74)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H74" s="0" t="str">
@@ -3359,7 +3359,7 @@
         <v>146</v>
       </c>
       <c r="G75" s="0" t="str">
-        <f aca="false">IF(H75="", "eigen", H75)</f>
+        <f aca="false">IF(H75="", "zorgwekkende_stof:eigen", H75)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H75" s="0" t="str">
@@ -3392,7 +3392,7 @@
         <v>148</v>
       </c>
       <c r="G76" s="0" t="str">
-        <f aca="false">IF(H76="", "eigen", H76)</f>
+        <f aca="false">IF(H76="", "zorgwekkende_stof:eigen", H76)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H76" s="0" t="str">
@@ -3425,8 +3425,8 @@
         <v>150</v>
       </c>
       <c r="G77" s="0" t="str">
-        <f aca="false">IF(H77="", "eigen", H77)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H77="", "zorgwekkende_stof:eigen", H77)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H77" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K77), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L77), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M77), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N77), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O77), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -3455,7 +3455,7 @@
         <v>152</v>
       </c>
       <c r="G78" s="0" t="str">
-        <f aca="false">IF(H78="", "eigen", H78)</f>
+        <f aca="false">IF(H78="", "zorgwekkende_stof:eigen", H78)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H78" s="0" t="str">
@@ -3488,7 +3488,7 @@
         <v>154</v>
       </c>
       <c r="G79" s="0" t="str">
-        <f aca="false">IF(H79="", "eigen", H79)</f>
+        <f aca="false">IF(H79="", "zorgwekkende_stof:eigen", H79)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H79" s="0" t="str">
@@ -3521,7 +3521,7 @@
         <v>155</v>
       </c>
       <c r="G80" s="0" t="str">
-        <f aca="false">IF(H80="", "eigen", H80)</f>
+        <f aca="false">IF(H80="", "zorgwekkende_stof:eigen", H80)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H80" s="0" t="str">
@@ -3554,7 +3554,7 @@
         <v>157</v>
       </c>
       <c r="G81" s="0" t="str">
-        <f aca="false">IF(H81="", "eigen", H81)</f>
+        <f aca="false">IF(H81="", "zorgwekkende_stof:eigen", H81)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H81" s="0" t="str">
@@ -3587,8 +3587,8 @@
         <v>159</v>
       </c>
       <c r="G82" s="0" t="str">
-        <f aca="false">IF(H82="", "eigen", H82)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H82="", "zorgwekkende_stof:eigen", H82)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H82" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K82), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L82), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M82), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N82), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O82), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -3617,7 +3617,7 @@
         <v>161</v>
       </c>
       <c r="G83" s="0" t="str">
-        <f aca="false">IF(H83="", "eigen", H83)</f>
+        <f aca="false">IF(H83="", "zorgwekkende_stof:eigen", H83)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H83" s="0" t="str">
@@ -3650,7 +3650,7 @@
         <v>163</v>
       </c>
       <c r="G84" s="0" t="str">
-        <f aca="false">IF(H84="", "eigen", H84)</f>
+        <f aca="false">IF(H84="", "zorgwekkende_stof:eigen", H84)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H84" s="0" t="str">
@@ -3683,7 +3683,7 @@
         <v>165</v>
       </c>
       <c r="G85" s="0" t="str">
-        <f aca="false">IF(H85="", "eigen", H85)</f>
+        <f aca="false">IF(H85="", "zorgwekkende_stof:eigen", H85)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H85" s="0" t="str">
@@ -3716,8 +3716,8 @@
         <v>166</v>
       </c>
       <c r="G86" s="0" t="str">
-        <f aca="false">IF(H86="", "eigen", H86)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H86="", "zorgwekkende_stof:eigen", H86)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H86" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K86), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L86), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M86), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N86), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O86), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -3746,7 +3746,7 @@
         <v>168</v>
       </c>
       <c r="G87" s="0" t="str">
-        <f aca="false">IF(H87="", "eigen", H87)</f>
+        <f aca="false">IF(H87="", "zorgwekkende_stof:eigen", H87)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H87" s="0" t="str">
@@ -3779,7 +3779,7 @@
         <v>170</v>
       </c>
       <c r="G88" s="0" t="str">
-        <f aca="false">IF(H88="", "eigen", H88)</f>
+        <f aca="false">IF(H88="", "zorgwekkende_stof:eigen", H88)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H88" s="0" t="str">
@@ -3815,7 +3815,7 @@
         <v>172</v>
       </c>
       <c r="G89" s="0" t="str">
-        <f aca="false">IF(H89="", "eigen", H89)</f>
+        <f aca="false">IF(H89="", "zorgwekkende_stof:eigen", H89)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H89" s="0" t="str">
@@ -3848,7 +3848,7 @@
         <v>173</v>
       </c>
       <c r="G90" s="0" t="str">
-        <f aca="false">IF(H90="", "eigen", H90)</f>
+        <f aca="false">IF(H90="", "zorgwekkende_stof:eigen", H90)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H90" s="0" t="str">
@@ -3881,8 +3881,8 @@
         <v>174</v>
       </c>
       <c r="G91" s="0" t="str">
-        <f aca="false">IF(H91="", "eigen", H91)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H91="", "zorgwekkende_stof:eigen", H91)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H91" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K91), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L91), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M91), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N91), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O91), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -3911,7 +3911,7 @@
         <v>176</v>
       </c>
       <c r="G92" s="0" t="str">
-        <f aca="false">IF(H92="", "eigen", H92)</f>
+        <f aca="false">IF(H92="", "zorgwekkende_stof:eigen", H92)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H92" s="0" t="str">
@@ -3944,8 +3944,8 @@
         <v>177</v>
       </c>
       <c r="G93" s="0" t="str">
-        <f aca="false">IF(H93="", "eigen", H93)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H93="", "zorgwekkende_stof:eigen", H93)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H93" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K93), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L93), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M93), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N93), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O93), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -3974,7 +3974,7 @@
         <v>179</v>
       </c>
       <c r="G94" s="0" t="str">
-        <f aca="false">IF(H94="", "eigen", H94)</f>
+        <f aca="false">IF(H94="", "zorgwekkende_stof:eigen", H94)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H94" s="0" t="str">
@@ -4007,8 +4007,8 @@
         <v>180</v>
       </c>
       <c r="G95" s="0" t="str">
-        <f aca="false">IF(H95="", "eigen", H95)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H95="", "zorgwekkende_stof:eigen", H95)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H95" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K95), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L95), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M95), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N95), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O95), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -4037,7 +4037,7 @@
         <v>182</v>
       </c>
       <c r="G96" s="0" t="str">
-        <f aca="false">IF(H96="", "eigen", H96)</f>
+        <f aca="false">IF(H96="", "zorgwekkende_stof:eigen", H96)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H96" s="0" t="str">
@@ -4070,7 +4070,7 @@
         <v>184</v>
       </c>
       <c r="G97" s="0" t="str">
-        <f aca="false">IF(H97="", "eigen", H97)</f>
+        <f aca="false">IF(H97="", "zorgwekkende_stof:eigen", H97)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H97" s="0" t="str">
@@ -4103,7 +4103,7 @@
         <v>186</v>
       </c>
       <c r="G98" s="0" t="str">
-        <f aca="false">IF(H98="", "eigen", H98)</f>
+        <f aca="false">IF(H98="", "zorgwekkende_stof:eigen", H98)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H98" s="0" t="str">
@@ -4136,7 +4136,7 @@
         <v>188</v>
       </c>
       <c r="G99" s="0" t="str">
-        <f aca="false">IF(H99="", "eigen", H99)</f>
+        <f aca="false">IF(H99="", "zorgwekkende_stof:eigen", H99)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H99" s="0" t="str">
@@ -4172,7 +4172,7 @@
         <v>190</v>
       </c>
       <c r="G100" s="0" t="str">
-        <f aca="false">IF(H100="", "eigen", H100)</f>
+        <f aca="false">IF(H100="", "zorgwekkende_stof:eigen", H100)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H100" s="0" t="str">
@@ -4205,7 +4205,7 @@
         <v>192</v>
       </c>
       <c r="G101" s="0" t="str">
-        <f aca="false">IF(H101="", "eigen", H101)</f>
+        <f aca="false">IF(H101="", "zorgwekkende_stof:eigen", H101)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H101" s="0" t="str">
@@ -4238,7 +4238,7 @@
         <v>194</v>
       </c>
       <c r="G102" s="0" t="str">
-        <f aca="false">IF(H102="", "eigen", H102)</f>
+        <f aca="false">IF(H102="", "zorgwekkende_stof:eigen", H102)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H102" s="0" t="str">
@@ -4271,7 +4271,7 @@
         <v>196</v>
       </c>
       <c r="G103" s="0" t="str">
-        <f aca="false">IF(H103="", "eigen", H103)</f>
+        <f aca="false">IF(H103="", "zorgwekkende_stof:eigen", H103)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H103" s="0" t="str">
@@ -4307,8 +4307,8 @@
         <v>198</v>
       </c>
       <c r="G104" s="0" t="str">
-        <f aca="false">IF(H104="", "eigen", H104)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H104="", "zorgwekkende_stof:eigen", H104)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H104" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K104), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L104), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M104), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N104), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O104), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -4337,7 +4337,7 @@
         <v>199</v>
       </c>
       <c r="G105" s="0" t="str">
-        <f aca="false">IF(H105="", "eigen", H105)</f>
+        <f aca="false">IF(H105="", "zorgwekkende_stof:eigen", H105)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H105" s="0" t="str">
@@ -4370,7 +4370,7 @@
         <v>200</v>
       </c>
       <c r="G106" s="0" t="str">
-        <f aca="false">IF(H106="", "eigen", H106)</f>
+        <f aca="false">IF(H106="", "zorgwekkende_stof:eigen", H106)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H106" s="0" t="str">
@@ -4403,7 +4403,7 @@
         <v>202</v>
       </c>
       <c r="G107" s="0" t="str">
-        <f aca="false">IF(H107="", "eigen", H107)</f>
+        <f aca="false">IF(H107="", "zorgwekkende_stof:eigen", H107)</f>
         <v>zorgwekkende_stof:edlists_org_list_i|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H107" s="0" t="str">
@@ -4439,7 +4439,7 @@
         <v>203</v>
       </c>
       <c r="G108" s="0" t="str">
-        <f aca="false">IF(H108="", "eigen", H108)</f>
+        <f aca="false">IF(H108="", "zorgwekkende_stof:eigen", H108)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H108" s="0" t="str">
@@ -4472,7 +4472,7 @@
         <v>205</v>
       </c>
       <c r="G109" s="0" t="str">
-        <f aca="false">IF(H109="", "eigen", H109)</f>
+        <f aca="false">IF(H109="", "zorgwekkende_stof:eigen", H109)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H109" s="0" t="str">
@@ -4505,7 +4505,7 @@
         <v>206</v>
       </c>
       <c r="G110" s="0" t="str">
-        <f aca="false">IF(H110="", "eigen", H110)</f>
+        <f aca="false">IF(H110="", "zorgwekkende_stof:eigen", H110)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H110" s="0" t="str">
@@ -4538,8 +4538,8 @@
         <v>208</v>
       </c>
       <c r="G111" s="0" t="str">
-        <f aca="false">IF(H111="", "eigen", H111)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H111="", "zorgwekkende_stof:eigen", H111)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H111" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K111), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L111), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M111), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N111), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O111), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -4568,7 +4568,7 @@
         <v>210</v>
       </c>
       <c r="G112" s="0" t="str">
-        <f aca="false">IF(H112="", "eigen", H112)</f>
+        <f aca="false">IF(H112="", "zorgwekkende_stof:eigen", H112)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H112" s="0" t="str">
@@ -4601,7 +4601,7 @@
         <v>212</v>
       </c>
       <c r="G113" s="0" t="str">
-        <f aca="false">IF(H113="", "eigen", H113)</f>
+        <f aca="false">IF(H113="", "zorgwekkende_stof:eigen", H113)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H113" s="0" t="str">
@@ -4637,7 +4637,7 @@
         <v>214</v>
       </c>
       <c r="G114" s="0" t="str">
-        <f aca="false">IF(H114="", "eigen", H114)</f>
+        <f aca="false">IF(H114="", "zorgwekkende_stof:eigen", H114)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H114" s="0" t="str">
@@ -4670,7 +4670,7 @@
         <v>215</v>
       </c>
       <c r="G115" s="0" t="str">
-        <f aca="false">IF(H115="", "eigen", H115)</f>
+        <f aca="false">IF(H115="", "zorgwekkende_stof:eigen", H115)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H115" s="0" t="str">
@@ -4703,8 +4703,8 @@
         <v>217</v>
       </c>
       <c r="G116" s="0" t="str">
-        <f aca="false">IF(H116="", "eigen", H116)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H116="", "zorgwekkende_stof:eigen", H116)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H116" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K116), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L116), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M116), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N116), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O116), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -4733,8 +4733,8 @@
         <v>219</v>
       </c>
       <c r="G117" s="0" t="str">
-        <f aca="false">IF(H117="", "eigen", H117)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H117="", "zorgwekkende_stof:eigen", H117)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H117" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K117), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L117), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M117), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N117), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O117), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -4763,7 +4763,7 @@
         <v>220</v>
       </c>
       <c r="G118" s="0" t="str">
-        <f aca="false">IF(H118="", "eigen", H118)</f>
+        <f aca="false">IF(H118="", "zorgwekkende_stof:eigen", H118)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H118" s="0" t="str">
@@ -4796,7 +4796,7 @@
         <v>222</v>
       </c>
       <c r="G119" s="0" t="str">
-        <f aca="false">IF(H119="", "eigen", H119)</f>
+        <f aca="false">IF(H119="", "zorgwekkende_stof:eigen", H119)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H119" s="0" t="str">
@@ -4829,7 +4829,7 @@
         <v>223</v>
       </c>
       <c r="G120" s="0" t="str">
-        <f aca="false">IF(H120="", "eigen", H120)</f>
+        <f aca="false">IF(H120="", "zorgwekkende_stof:eigen", H120)</f>
         <v>zorgwekkende_stof:edlists_org_list_i|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H120" s="0" t="str">
@@ -4865,7 +4865,7 @@
         <v>225</v>
       </c>
       <c r="G121" s="0" t="str">
-        <f aca="false">IF(H121="", "eigen", H121)</f>
+        <f aca="false">IF(H121="", "zorgwekkende_stof:eigen", H121)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H121" s="0" t="str">
@@ -4901,8 +4901,8 @@
         <v>227</v>
       </c>
       <c r="G122" s="0" t="str">
-        <f aca="false">IF(H122="", "eigen", H122)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H122="", "zorgwekkende_stof:eigen", H122)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H122" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K122), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L122), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M122), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N122), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O122), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -4931,7 +4931,7 @@
         <v>228</v>
       </c>
       <c r="G123" s="0" t="str">
-        <f aca="false">IF(H123="", "eigen", H123)</f>
+        <f aca="false">IF(H123="", "zorgwekkende_stof:eigen", H123)</f>
         <v>zorgwekkende_stof:edlists_org_list_i|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H123" s="0" t="str">
@@ -4967,7 +4967,7 @@
         <v>230</v>
       </c>
       <c r="G124" s="0" t="str">
-        <f aca="false">IF(H124="", "eigen", H124)</f>
+        <f aca="false">IF(H124="", "zorgwekkende_stof:eigen", H124)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H124" s="0" t="str">
@@ -5000,7 +5000,7 @@
         <v>232</v>
       </c>
       <c r="G125" s="0" t="str">
-        <f aca="false">IF(H125="", "eigen", H125)</f>
+        <f aca="false">IF(H125="", "zorgwekkende_stof:eigen", H125)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H125" s="0" t="str">
@@ -5033,7 +5033,7 @@
         <v>234</v>
       </c>
       <c r="G126" s="0" t="str">
-        <f aca="false">IF(H126="", "eigen", H126)</f>
+        <f aca="false">IF(H126="", "zorgwekkende_stof:eigen", H126)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H126" s="0" t="str">
@@ -5066,7 +5066,7 @@
         <v>236</v>
       </c>
       <c r="G127" s="0" t="str">
-        <f aca="false">IF(H127="", "eigen", H127)</f>
+        <f aca="false">IF(H127="", "zorgwekkende_stof:eigen", H127)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H127" s="0" t="str">
@@ -5099,7 +5099,7 @@
         <v>237</v>
       </c>
       <c r="G128" s="0" t="str">
-        <f aca="false">IF(H128="", "eigen", H128)</f>
+        <f aca="false">IF(H128="", "zorgwekkende_stof:eigen", H128)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H128" s="0" t="str">
@@ -5132,7 +5132,7 @@
         <v>239</v>
       </c>
       <c r="G129" s="0" t="str">
-        <f aca="false">IF(H129="", "eigen", H129)</f>
+        <f aca="false">IF(H129="", "zorgwekkende_stof:eigen", H129)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H129" s="0" t="str">
@@ -5168,7 +5168,7 @@
         <v>240</v>
       </c>
       <c r="G130" s="0" t="str">
-        <f aca="false">IF(H130="", "eigen", H130)</f>
+        <f aca="false">IF(H130="", "zorgwekkende_stof:eigen", H130)</f>
         <v>zorgwekkende_stof:edlists_org_list_i|</v>
       </c>
       <c r="H130" s="0" t="str">
@@ -5201,8 +5201,8 @@
         <v>242</v>
       </c>
       <c r="G131" s="0" t="str">
-        <f aca="false">IF(H131="", "eigen", H131)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H131="", "zorgwekkende_stof:eigen", H131)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H131" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K131), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L131), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M131), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N131), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O131), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -5231,8 +5231,8 @@
         <v>244</v>
       </c>
       <c r="G132" s="0" t="str">
-        <f aca="false">IF(H132="", "eigen", H132)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H132="", "zorgwekkende_stof:eigen", H132)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H132" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K132), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L132), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M132), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N132), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O132), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -5261,7 +5261,7 @@
         <v>246</v>
       </c>
       <c r="G133" s="0" t="str">
-        <f aca="false">IF(H133="", "eigen", H133)</f>
+        <f aca="false">IF(H133="", "zorgwekkende_stof:eigen", H133)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H133" s="0" t="str">
@@ -5294,7 +5294,7 @@
         <v>248</v>
       </c>
       <c r="G134" s="0" t="str">
-        <f aca="false">IF(H134="", "eigen", H134)</f>
+        <f aca="false">IF(H134="", "zorgwekkende_stof:eigen", H134)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H134" s="0" t="str">
@@ -5327,7 +5327,7 @@
         <v>249</v>
       </c>
       <c r="G135" s="0" t="str">
-        <f aca="false">IF(H135="", "eigen", H135)</f>
+        <f aca="false">IF(H135="", "zorgwekkende_stof:eigen", H135)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H135" s="0" t="str">
@@ -5360,7 +5360,7 @@
         <v>251</v>
       </c>
       <c r="G136" s="0" t="str">
-        <f aca="false">IF(H136="", "eigen", H136)</f>
+        <f aca="false">IF(H136="", "zorgwekkende_stof:eigen", H136)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H136" s="0" t="str">
@@ -5393,8 +5393,8 @@
         <v>253</v>
       </c>
       <c r="G137" s="0" t="str">
-        <f aca="false">IF(H137="", "eigen", H137)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H137="", "zorgwekkende_stof:eigen", H137)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H137" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K137), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L137), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M137), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N137), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O137), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -5423,7 +5423,7 @@
         <v>254</v>
       </c>
       <c r="G138" s="0" t="str">
-        <f aca="false">IF(H138="", "eigen", H138)</f>
+        <f aca="false">IF(H138="", "zorgwekkende_stof:eigen", H138)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H138" s="0" t="str">
@@ -5456,7 +5456,7 @@
         <v>256</v>
       </c>
       <c r="G139" s="0" t="str">
-        <f aca="false">IF(H139="", "eigen", H139)</f>
+        <f aca="false">IF(H139="", "zorgwekkende_stof:eigen", H139)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H139" s="0" t="str">
@@ -5492,7 +5492,7 @@
         <v>257</v>
       </c>
       <c r="G140" s="0" t="str">
-        <f aca="false">IF(H140="", "eigen", H140)</f>
+        <f aca="false">IF(H140="", "zorgwekkende_stof:eigen", H140)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H140" s="0" t="str">
@@ -5525,8 +5525,8 @@
         <v>259</v>
       </c>
       <c r="G141" s="0" t="str">
-        <f aca="false">IF(H141="", "eigen", H141)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H141="", "zorgwekkende_stof:eigen", H141)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H141" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K141), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L141), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M141), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N141), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O141), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -5555,7 +5555,7 @@
         <v>261</v>
       </c>
       <c r="G142" s="0" t="str">
-        <f aca="false">IF(H142="", "eigen", H142)</f>
+        <f aca="false">IF(H142="", "zorgwekkende_stof:eigen", H142)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H142" s="0" t="str">
@@ -5588,7 +5588,7 @@
         <v>262</v>
       </c>
       <c r="G143" s="0" t="str">
-        <f aca="false">IF(H143="", "eigen", H143)</f>
+        <f aca="false">IF(H143="", "zorgwekkende_stof:eigen", H143)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H143" s="0" t="str">
@@ -5621,7 +5621,7 @@
         <v>264</v>
       </c>
       <c r="G144" s="0" t="str">
-        <f aca="false">IF(H144="", "eigen", H144)</f>
+        <f aca="false">IF(H144="", "zorgwekkende_stof:eigen", H144)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H144" s="0" t="str">
@@ -5654,7 +5654,7 @@
         <v>266</v>
       </c>
       <c r="G145" s="0" t="str">
-        <f aca="false">IF(H145="", "eigen", H145)</f>
+        <f aca="false">IF(H145="", "zorgwekkende_stof:eigen", H145)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H145" s="0" t="str">
@@ -5687,7 +5687,7 @@
         <v>268</v>
       </c>
       <c r="G146" s="0" t="str">
-        <f aca="false">IF(H146="", "eigen", H146)</f>
+        <f aca="false">IF(H146="", "zorgwekkende_stof:eigen", H146)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H146" s="0" t="str">
@@ -5720,7 +5720,7 @@
         <v>270</v>
       </c>
       <c r="G147" s="0" t="str">
-        <f aca="false">IF(H147="", "eigen", H147)</f>
+        <f aca="false">IF(H147="", "zorgwekkende_stof:eigen", H147)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H147" s="0" t="str">
@@ -5753,7 +5753,7 @@
         <v>272</v>
       </c>
       <c r="G148" s="0" t="str">
-        <f aca="false">IF(H148="", "eigen", H148)</f>
+        <f aca="false">IF(H148="", "zorgwekkende_stof:eigen", H148)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H148" s="0" t="str">
@@ -5786,7 +5786,7 @@
         <v>274</v>
       </c>
       <c r="G149" s="0" t="str">
-        <f aca="false">IF(H149="", "eigen", H149)</f>
+        <f aca="false">IF(H149="", "zorgwekkende_stof:eigen", H149)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H149" s="0" t="str">
@@ -5822,7 +5822,7 @@
         <v>275</v>
       </c>
       <c r="G150" s="0" t="str">
-        <f aca="false">IF(H150="", "eigen", H150)</f>
+        <f aca="false">IF(H150="", "zorgwekkende_stof:eigen", H150)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H150" s="0" t="str">
@@ -5855,8 +5855,8 @@
         <v>277</v>
       </c>
       <c r="G151" s="0" t="str">
-        <f aca="false">IF(H151="", "eigen", H151)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H151="", "zorgwekkende_stof:eigen", H151)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H151" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K151), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L151), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M151), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N151), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O151), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -5885,7 +5885,7 @@
         <v>278</v>
       </c>
       <c r="G152" s="0" t="str">
-        <f aca="false">IF(H152="", "eigen", H152)</f>
+        <f aca="false">IF(H152="", "zorgwekkende_stof:eigen", H152)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H152" s="0" t="str">
@@ -5918,8 +5918,8 @@
         <v>280</v>
       </c>
       <c r="G153" s="0" t="str">
-        <f aca="false">IF(H153="", "eigen", H153)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H153="", "zorgwekkende_stof:eigen", H153)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H153" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K153), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L153), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M153), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N153), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O153), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -5948,7 +5948,7 @@
         <v>281</v>
       </c>
       <c r="G154" s="0" t="str">
-        <f aca="false">IF(H154="", "eigen", H154)</f>
+        <f aca="false">IF(H154="", "zorgwekkende_stof:eigen", H154)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H154" s="0" t="str">
@@ -5984,7 +5984,7 @@
         <v>283</v>
       </c>
       <c r="G155" s="0" t="str">
-        <f aca="false">IF(H155="", "eigen", H155)</f>
+        <f aca="false">IF(H155="", "zorgwekkende_stof:eigen", H155)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H155" s="0" t="str">
@@ -6017,7 +6017,7 @@
         <v>285</v>
       </c>
       <c r="G156" s="0" t="str">
-        <f aca="false">IF(H156="", "eigen", H156)</f>
+        <f aca="false">IF(H156="", "zorgwekkende_stof:eigen", H156)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H156" s="0" t="str">
@@ -6050,7 +6050,7 @@
         <v>287</v>
       </c>
       <c r="G157" s="0" t="str">
-        <f aca="false">IF(H157="", "eigen", H157)</f>
+        <f aca="false">IF(H157="", "zorgwekkende_stof:eigen", H157)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H157" s="0" t="str">
@@ -6083,7 +6083,7 @@
         <v>288</v>
       </c>
       <c r="G158" s="0" t="str">
-        <f aca="false">IF(H158="", "eigen", H158)</f>
+        <f aca="false">IF(H158="", "zorgwekkende_stof:eigen", H158)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H158" s="0" t="str">
@@ -6116,8 +6116,8 @@
         <v>290</v>
       </c>
       <c r="G159" s="0" t="str">
-        <f aca="false">IF(H159="", "eigen", H159)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H159="", "zorgwekkende_stof:eigen", H159)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H159" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K159), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L159), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M159), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N159), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O159), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -6146,8 +6146,8 @@
         <v>292</v>
       </c>
       <c r="G160" s="0" t="str">
-        <f aca="false">IF(H160="", "eigen", H160)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H160="", "zorgwekkende_stof:eigen", H160)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H160" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K160), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L160), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M160), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N160), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O160), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -6176,7 +6176,7 @@
         <v>294</v>
       </c>
       <c r="G161" s="0" t="str">
-        <f aca="false">IF(H161="", "eigen", H161)</f>
+        <f aca="false">IF(H161="", "zorgwekkende_stof:eigen", H161)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H161" s="0" t="str">
@@ -6212,7 +6212,7 @@
         <v>295</v>
       </c>
       <c r="G162" s="0" t="str">
-        <f aca="false">IF(H162="", "eigen", H162)</f>
+        <f aca="false">IF(H162="", "zorgwekkende_stof:eigen", H162)</f>
         <v>zorgwekkende_stof:edlists_org_list_i|</v>
       </c>
       <c r="H162" s="0" t="str">
@@ -6245,7 +6245,7 @@
         <v>297</v>
       </c>
       <c r="G163" s="0" t="str">
-        <f aca="false">IF(H163="", "eigen", H163)</f>
+        <f aca="false">IF(H163="", "zorgwekkende_stof:eigen", H163)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H163" s="0" t="str">
@@ -6278,8 +6278,8 @@
         <v>299</v>
       </c>
       <c r="G164" s="0" t="str">
-        <f aca="false">IF(H164="", "eigen", H164)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H164="", "zorgwekkende_stof:eigen", H164)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H164" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K164), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L164), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M164), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N164), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O164), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -6308,7 +6308,7 @@
         <v>300</v>
       </c>
       <c r="G165" s="0" t="str">
-        <f aca="false">IF(H165="", "eigen", H165)</f>
+        <f aca="false">IF(H165="", "zorgwekkende_stof:eigen", H165)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H165" s="0" t="str">
@@ -6344,8 +6344,8 @@
         <v>302</v>
       </c>
       <c r="G166" s="0" t="str">
-        <f aca="false">IF(H166="", "eigen", H166)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H166="", "zorgwekkende_stof:eigen", H166)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H166" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K166), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L166), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M166), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N166), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O166), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -6374,8 +6374,8 @@
         <v>304</v>
       </c>
       <c r="G167" s="0" t="str">
-        <f aca="false">IF(H167="", "eigen", H167)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H167="", "zorgwekkende_stof:eigen", H167)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H167" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K167), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L167), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M167), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N167), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O167), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -6404,7 +6404,7 @@
         <v>305</v>
       </c>
       <c r="G168" s="0" t="str">
-        <f aca="false">IF(H168="", "eigen", H168)</f>
+        <f aca="false">IF(H168="", "zorgwekkende_stof:eigen", H168)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H168" s="0" t="str">
@@ -6437,8 +6437,8 @@
         <v>307</v>
       </c>
       <c r="G169" s="0" t="str">
-        <f aca="false">IF(H169="", "eigen", H169)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H169="", "zorgwekkende_stof:eigen", H169)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H169" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K169), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L169), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M169), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N169), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O169), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -6467,7 +6467,7 @@
         <v>309</v>
       </c>
       <c r="G170" s="0" t="str">
-        <f aca="false">IF(H170="", "eigen", H170)</f>
+        <f aca="false">IF(H170="", "zorgwekkende_stof:eigen", H170)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H170" s="0" t="str">
@@ -6500,8 +6500,8 @@
         <v>311</v>
       </c>
       <c r="G171" s="0" t="str">
-        <f aca="false">IF(H171="", "eigen", H171)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H171="", "zorgwekkende_stof:eigen", H171)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H171" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K171), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L171), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M171), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N171), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O171), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -6530,7 +6530,7 @@
         <v>313</v>
       </c>
       <c r="G172" s="0" t="str">
-        <f aca="false">IF(H172="", "eigen", H172)</f>
+        <f aca="false">IF(H172="", "zorgwekkende_stof:eigen", H172)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H172" s="0" t="str">
@@ -6563,7 +6563,7 @@
         <v>315</v>
       </c>
       <c r="G173" s="0" t="str">
-        <f aca="false">IF(H173="", "eigen", H173)</f>
+        <f aca="false">IF(H173="", "zorgwekkende_stof:eigen", H173)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H173" s="0" t="str">
@@ -6596,7 +6596,7 @@
         <v>317</v>
       </c>
       <c r="G174" s="0" t="str">
-        <f aca="false">IF(H174="", "eigen", H174)</f>
+        <f aca="false">IF(H174="", "zorgwekkende_stof:eigen", H174)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H174" s="0" t="str">
@@ -6629,8 +6629,8 @@
         <v>318</v>
       </c>
       <c r="G175" s="0" t="str">
-        <f aca="false">IF(H175="", "eigen", H175)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H175="", "zorgwekkende_stof:eigen", H175)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H175" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K175), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L175), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M175), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N175), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O175), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -6659,7 +6659,7 @@
         <v>320</v>
       </c>
       <c r="G176" s="0" t="str">
-        <f aca="false">IF(H176="", "eigen", H176)</f>
+        <f aca="false">IF(H176="", "zorgwekkende_stof:eigen", H176)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H176" s="0" t="str">
@@ -6692,8 +6692,8 @@
         <v>321</v>
       </c>
       <c r="G177" s="0" t="str">
-        <f aca="false">IF(H177="", "eigen", H177)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H177="", "zorgwekkende_stof:eigen", H177)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H177" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K177), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L177), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M177), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N177), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O177), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -6722,7 +6722,7 @@
         <v>322</v>
       </c>
       <c r="G178" s="0" t="str">
-        <f aca="false">IF(H178="", "eigen", H178)</f>
+        <f aca="false">IF(H178="", "zorgwekkende_stof:eigen", H178)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H178" s="0" t="str">
@@ -6755,7 +6755,7 @@
         <v>324</v>
       </c>
       <c r="G179" s="0" t="str">
-        <f aca="false">IF(H179="", "eigen", H179)</f>
+        <f aca="false">IF(H179="", "zorgwekkende_stof:eigen", H179)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H179" s="0" t="str">
@@ -6788,7 +6788,7 @@
         <v>326</v>
       </c>
       <c r="G180" s="0" t="str">
-        <f aca="false">IF(H180="", "eigen", H180)</f>
+        <f aca="false">IF(H180="", "zorgwekkende_stof:eigen", H180)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H180" s="0" t="str">
@@ -6821,7 +6821,7 @@
         <v>328</v>
       </c>
       <c r="G181" s="0" t="str">
-        <f aca="false">IF(H181="", "eigen", H181)</f>
+        <f aca="false">IF(H181="", "zorgwekkende_stof:eigen", H181)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H181" s="0" t="str">
@@ -6854,7 +6854,7 @@
         <v>329</v>
       </c>
       <c r="G182" s="0" t="str">
-        <f aca="false">IF(H182="", "eigen", H182)</f>
+        <f aca="false">IF(H182="", "zorgwekkende_stof:eigen", H182)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H182" s="0" t="str">
@@ -6887,8 +6887,8 @@
         <v>331</v>
       </c>
       <c r="G183" s="0" t="str">
-        <f aca="false">IF(H183="", "eigen", H183)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H183="", "zorgwekkende_stof:eigen", H183)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H183" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K183), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L183), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M183), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N183), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O183), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -6917,7 +6917,7 @@
         <v>333</v>
       </c>
       <c r="G184" s="0" t="str">
-        <f aca="false">IF(H184="", "eigen", H184)</f>
+        <f aca="false">IF(H184="", "zorgwekkende_stof:eigen", H184)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H184" s="0" t="str">
@@ -6950,8 +6950,8 @@
         <v>335</v>
       </c>
       <c r="G185" s="0" t="str">
-        <f aca="false">IF(H185="", "eigen", H185)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H185="", "zorgwekkende_stof:eigen", H185)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H185" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K185), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L185), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M185), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N185), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O185), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -6980,7 +6980,7 @@
         <v>337</v>
       </c>
       <c r="G186" s="0" t="str">
-        <f aca="false">IF(H186="", "eigen", H186)</f>
+        <f aca="false">IF(H186="", "zorgwekkende_stof:eigen", H186)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H186" s="0" t="str">
@@ -7019,7 +7019,7 @@
         <v>339</v>
       </c>
       <c r="G187" s="0" t="str">
-        <f aca="false">IF(H187="", "eigen", H187)</f>
+        <f aca="false">IF(H187="", "zorgwekkende_stof:eigen", H187)</f>
         <v>zorgwekkende_stof:edlists_org_list_i|</v>
       </c>
       <c r="H187" s="0" t="str">
@@ -7052,7 +7052,7 @@
         <v>340</v>
       </c>
       <c r="G188" s="0" t="str">
-        <f aca="false">IF(H188="", "eigen", H188)</f>
+        <f aca="false">IF(H188="", "zorgwekkende_stof:eigen", H188)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H188" s="0" t="str">
@@ -7085,7 +7085,7 @@
         <v>341</v>
       </c>
       <c r="G189" s="0" t="str">
-        <f aca="false">IF(H189="", "eigen", H189)</f>
+        <f aca="false">IF(H189="", "zorgwekkende_stof:eigen", H189)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H189" s="0" t="str">
@@ -7118,7 +7118,7 @@
         <v>343</v>
       </c>
       <c r="G190" s="0" t="str">
-        <f aca="false">IF(H190="", "eigen", H190)</f>
+        <f aca="false">IF(H190="", "zorgwekkende_stof:eigen", H190)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H190" s="0" t="str">
@@ -7151,7 +7151,7 @@
         <v>345</v>
       </c>
       <c r="G191" s="0" t="str">
-        <f aca="false">IF(H191="", "eigen", H191)</f>
+        <f aca="false">IF(H191="", "zorgwekkende_stof:eigen", H191)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H191" s="0" t="str">
@@ -7184,7 +7184,7 @@
         <v>347</v>
       </c>
       <c r="G192" s="0" t="str">
-        <f aca="false">IF(H192="", "eigen", H192)</f>
+        <f aca="false">IF(H192="", "zorgwekkende_stof:eigen", H192)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H192" s="0" t="str">
@@ -7217,7 +7217,7 @@
         <v>349</v>
       </c>
       <c r="G193" s="0" t="str">
-        <f aca="false">IF(H193="", "eigen", H193)</f>
+        <f aca="false">IF(H193="", "zorgwekkende_stof:eigen", H193)</f>
         <v>zorgwekkende_stof:uba_pmt|</v>
       </c>
       <c r="H193" s="0" t="str">
@@ -7250,8 +7250,8 @@
         <v>350</v>
       </c>
       <c r="G194" s="0" t="str">
-        <f aca="false">IF(H194="", "eigen", H194)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H194="", "zorgwekkende_stof:eigen", H194)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H194" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K194), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L194), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M194), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N194), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O194), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -7280,8 +7280,8 @@
         <v>352</v>
       </c>
       <c r="G195" s="0" t="str">
-        <f aca="false">IF(H195="", "eigen", H195)</f>
-        <v>eigen</v>
+        <f aca="false">IF(H195="", "zorgwekkende_stof:eigen", H195)</f>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H195" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K195), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L195), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M195), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N195), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O195), "", "zorgwekkende_stof:uba_pmt|"))</f>
@@ -7310,7 +7310,7 @@
         <v>354</v>
       </c>
       <c r="G196" s="0" t="str">
-        <f aca="false">IF(H196="", "eigen", H196)</f>
+        <f aca="false">IF(H196="", "zorgwekkende_stof:eigen", H196)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H196" s="0" t="str">
@@ -7343,7 +7343,7 @@
         <v>356</v>
       </c>
       <c r="G197" s="0" t="str">
-        <f aca="false">IF(H197="", "eigen", H197)</f>
+        <f aca="false">IF(H197="", "zorgwekkende_stof:eigen", H197)</f>
         <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H197" s="0" t="str">
@@ -7376,7 +7376,7 @@
         <v>357</v>
       </c>
       <c r="G198" s="0" t="str">
-        <f aca="false">IF(H198="", "eigen", H198)</f>
+        <f aca="false">IF(H198="", "zorgwekkende_stof:eigen", H198)</f>
         <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H198" s="0" t="str">

--- a/src/source/codelijst-source.xlsx
+++ b/src/source/codelijst-source.xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">UBA PMT</t>
   </si>
   <si>
-    <t xml:space="preserve">conceptscheme:zorgwekkende_stoffen</t>
+    <t xml:space="preserve">conceptscheme:zorgwekkende_stof</t>
   </si>
   <si>
     <t xml:space="preserve">Codelijst zorgwekkende stoffen</t>
@@ -1196,16 +1196,16 @@
   </sheetPr>
   <dimension ref="A1:O198"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E178" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G201" activeCellId="0" sqref="G201"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="2" sqref="A2 D9:D14 E3:E198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.23828125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="38.28125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="51.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="51.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/source/codelijst-source.xlsx
+++ b/src/source/codelijst-source.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="587">
   <si>
     <t xml:space="preserve">uri</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">inScheme</t>
   </si>
   <si>
-    <t xml:space="preserve">Naam</t>
+    <t xml:space="preserve">altLabel</t>
   </si>
   <si>
     <t xml:space="preserve">broader</t>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">CAS_Nr</t>
   </si>
   <si>
-    <t xml:space="preserve">conceptscheme:zorgwekkende_stoffen</t>
+    <t xml:space="preserve">conceptscheme:zorgwekkende_stof</t>
   </si>
   <si>
     <t xml:space="preserve">Codelijst zorgwekkende stoffen</t>
@@ -91,22 +91,10 @@
     <t xml:space="preserve">collectie:reach_svhcc_candidate_list</t>
   </si>
   <si>
-    <t xml:space="preserve">collectie:uba_pmt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">skos:Collection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UBA PMT</t>
-  </si>
-  <si>
     <t xml:space="preserve">zorgwekkende_stof:c_l_harmonized_classification</t>
   </si>
   <si>
     <t xml:space="preserve">skos:Concept</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conceptscheme:zorgwekkende_stof</t>
   </si>
   <si>
     <t xml:space="preserve">zorgwekkende_stof:edlists_org_list_i</t>
@@ -1938,10 +1926,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q179"/>
+  <dimension ref="A1:Q150"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2074,7 +2062,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="24.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>23</v>
       </c>
@@ -2082,7 +2070,10 @@
         <v>24</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>16</v>
@@ -2094,19 +2085,19 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J8" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K8), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L8), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M8), "", "collectie:pop_regulation|"),IF(ISBLANK(N8), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O8), "", "collectie:uba_pmt|"))</f>
@@ -2115,19 +2106,19 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J9" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K9), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L9), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M9), "", "collectie:pop_regulation|"),IF(ISBLANK(N9), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O9), "", "collectie:uba_pmt|"))</f>
@@ -2136,52 +2127,67 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J10" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K10), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L10), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M10), "", "collectie:pop_regulation|"),IF(ISBLANK(N10), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O10), "", "collectie:uba_pmt|"))</f>
         <v/>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="0" t="s">
+    <row r="11" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E11" s="0" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="0" t="str">
+        <f aca="false">IF(H11="", "zorgwekkende_stof:eigen", H11)</f>
+        <v>zorgwekkende_stof:eigen</v>
+      </c>
+      <c r="H11" s="0" t="str">
+        <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K11), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L11), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M11), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N11), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O11), "", "zorgwekkende_stof:uba_pmt|"))</f>
+        <v/>
+      </c>
+      <c r="I11" s="0" t="str">
+        <f aca="false">IF(J11="", "collectie:eigen", J11)</f>
+        <v>collectie:eigen</v>
       </c>
       <c r="J11" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K11), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L11), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M11), "", "collectie:pop_regulation|"),IF(ISBLANK(N11), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O11), "", "collectie:uba_pmt|"))</f>
         <v/>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>16</v>
@@ -2191,19 +2197,25 @@
       </c>
       <c r="G12" s="0" t="str">
         <f aca="false">IF(H12="", "zorgwekkende_stof:eigen", H12)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H12" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K12), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L12), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M12), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N12), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O12), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I12" s="0" t="str">
         <f aca="false">IF(J12="", "collectie:eigen", J12)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J12" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K12), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L12), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M12), "", "collectie:pop_regulation|"),IF(ISBLANK(N12), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O12), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="P12" s="0" t="s">
         <v>34</v>
@@ -2217,7 +2229,7 @@
         <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>16</v>
@@ -2227,25 +2239,22 @@
       </c>
       <c r="G13" s="0" t="str">
         <f aca="false">IF(H13="", "zorgwekkende_stof:eigen", H13)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H13" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K13), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L13), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M13), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N13), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O13), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="I13" s="0" t="str">
         <f aca="false">IF(J13="", "collectie:eigen", J13)</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:c_l_harmonized_classification|</v>
       </c>
       <c r="J13" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K13), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L13), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M13), "", "collectie:pop_regulation|"),IF(ISBLANK(N13), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O13), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:c_l_harmonized_classification|</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13" s="0" t="s">
         <v>38</v>
@@ -2259,7 +2268,7 @@
         <v>40</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>16</v>
@@ -2269,21 +2278,21 @@
       </c>
       <c r="G14" s="0" t="str">
         <f aca="false">IF(H14="", "zorgwekkende_stof:eigen", H14)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H14" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K14), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L14), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M14), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N14), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O14), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I14" s="0" t="str">
         <f aca="false">IF(J14="", "collectie:eigen", J14)</f>
-        <v>collectie:c_l_harmonized_classification|</v>
+        <v>collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J14" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K14), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L14), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M14), "", "collectie:pop_regulation|"),IF(ISBLANK(N14), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O14), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|</v>
-      </c>
-      <c r="K14" s="0" t="n">
+        <v>collectie:reach_svhcc_candidate_list|</v>
+      </c>
+      <c r="N14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="P14" s="0" t="s">
@@ -2298,7 +2307,7 @@
         <v>44</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>16</v>
@@ -2308,22 +2317,19 @@
       </c>
       <c r="G15" s="0" t="str">
         <f aca="false">IF(H15="", "zorgwekkende_stof:eigen", H15)</f>
-        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H15" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K15), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L15), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M15), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N15), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O15), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v/>
       </c>
       <c r="I15" s="0" t="str">
         <f aca="false">IF(J15="", "collectie:eigen", J15)</f>
-        <v>collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J15" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K15), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L15), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M15), "", "collectie:pop_regulation|"),IF(ISBLANK(N15), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O15), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P15" s="0" t="s">
         <v>46</v>
@@ -2337,7 +2343,7 @@
         <v>48</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>16</v>
@@ -2347,19 +2353,22 @@
       </c>
       <c r="G16" s="0" t="str">
         <f aca="false">IF(H16="", "zorgwekkende_stof:eigen", H16)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H16" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K16), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L16), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M16), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N16), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O16), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="I16" s="0" t="str">
         <f aca="false">IF(J16="", "collectie:eigen", J16)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:c_l_harmonized_classification|</v>
       </c>
       <c r="J16" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K16), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L16), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M16), "", "collectie:pop_regulation|"),IF(ISBLANK(N16), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O16), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:c_l_harmonized_classification|</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P16" s="0" t="s">
         <v>50</v>
@@ -2373,7 +2382,7 @@
         <v>52</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>16</v>
@@ -2412,7 +2421,7 @@
         <v>56</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>16</v>
@@ -2422,22 +2431,19 @@
       </c>
       <c r="G18" s="0" t="str">
         <f aca="false">IF(H18="", "zorgwekkende_stof:eigen", H18)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H18" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K18), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L18), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M18), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N18), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O18), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v/>
       </c>
       <c r="I18" s="0" t="str">
         <f aca="false">IF(J18="", "collectie:eigen", J18)</f>
-        <v>collectie:c_l_harmonized_classification|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J18" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K18), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L18), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M18), "", "collectie:pop_regulation|"),IF(ISBLANK(N18), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O18), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|</v>
-      </c>
-      <c r="K18" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P18" s="0" t="s">
         <v>58</v>
@@ -2451,7 +2457,7 @@
         <v>60</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>16</v>
@@ -2461,19 +2467,25 @@
       </c>
       <c r="G19" s="0" t="str">
         <f aca="false">IF(H19="", "zorgwekkende_stof:eigen", H19)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H19" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K19), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L19), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M19), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N19), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O19), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I19" s="0" t="str">
         <f aca="false">IF(J19="", "collectie:eigen", J19)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J19" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K19), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L19), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M19), "", "collectie:pop_regulation|"),IF(ISBLANK(N19), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O19), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P19" s="0" t="s">
         <v>62</v>
@@ -2487,7 +2499,7 @@
         <v>64</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>16</v>
@@ -2497,22 +2509,19 @@
       </c>
       <c r="G20" s="0" t="str">
         <f aca="false">IF(H20="", "zorgwekkende_stof:eigen", H20)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H20" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K20), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L20), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M20), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N20), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O20), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I20" s="0" t="str">
         <f aca="false">IF(J20="", "collectie:eigen", J20)</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J20" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K20), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L20), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M20), "", "collectie:pop_regulation|"),IF(ISBLANK(N20), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O20), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <v>1</v>
+        <v>collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="N20" s="0" t="n">
         <v>1</v>
@@ -2529,7 +2538,7 @@
         <v>68</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>16</v>
@@ -2539,22 +2548,19 @@
       </c>
       <c r="G21" s="0" t="str">
         <f aca="false">IF(H21="", "zorgwekkende_stof:eigen", H21)</f>
-        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H21" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K21), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L21), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M21), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N21), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O21), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v/>
       </c>
       <c r="I21" s="0" t="str">
         <f aca="false">IF(J21="", "collectie:eigen", J21)</f>
-        <v>collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J21" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K21), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L21), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M21), "", "collectie:pop_regulation|"),IF(ISBLANK(N21), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O21), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="N21" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P21" s="0" t="s">
         <v>70</v>
@@ -2568,7 +2574,7 @@
         <v>72</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>16</v>
@@ -2578,19 +2584,22 @@
       </c>
       <c r="G22" s="0" t="str">
         <f aca="false">IF(H22="", "zorgwekkende_stof:eigen", H22)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H22" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K22), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L22), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M22), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N22), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O22), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I22" s="0" t="str">
         <f aca="false">IF(J22="", "collectie:eigen", J22)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J22" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K22), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L22), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M22), "", "collectie:pop_regulation|"),IF(ISBLANK(N22), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O22), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:reach_svhcc_candidate_list|</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P22" s="0" t="s">
         <v>74</v>
@@ -2604,7 +2613,7 @@
         <v>76</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>16</v>
@@ -2614,21 +2623,21 @@
       </c>
       <c r="G23" s="0" t="str">
         <f aca="false">IF(H23="", "zorgwekkende_stof:eigen", H23)</f>
-        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H23" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K23), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L23), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M23), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N23), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O23), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="I23" s="0" t="str">
         <f aca="false">IF(J23="", "collectie:eigen", J23)</f>
-        <v>collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:c_l_harmonized_classification|</v>
       </c>
       <c r="J23" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K23), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L23), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M23), "", "collectie:pop_regulation|"),IF(ISBLANK(N23), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O23), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="N23" s="0" t="n">
+        <v>collectie:c_l_harmonized_classification|</v>
+      </c>
+      <c r="K23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="P23" s="0" t="s">
@@ -2643,7 +2652,7 @@
         <v>80</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>16</v>
@@ -2653,22 +2662,19 @@
       </c>
       <c r="G24" s="0" t="str">
         <f aca="false">IF(H24="", "zorgwekkende_stof:eigen", H24)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H24" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K24), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L24), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M24), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N24), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O24), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v/>
       </c>
       <c r="I24" s="0" t="str">
         <f aca="false">IF(J24="", "collectie:eigen", J24)</f>
-        <v>collectie:c_l_harmonized_classification|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J24" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K24), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L24), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M24), "", "collectie:pop_regulation|"),IF(ISBLANK(N24), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O24), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P24" s="0" t="s">
         <v>82</v>
@@ -2677,12 +2683,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>16</v>
@@ -2713,12 +2719,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>16</v>
@@ -2754,7 +2760,7 @@
         <v>92</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>16</v>
@@ -2764,19 +2770,22 @@
       </c>
       <c r="G27" s="0" t="str">
         <f aca="false">IF(H27="", "zorgwekkende_stof:eigen", H27)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H27" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K27), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L27), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M27), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N27), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O27), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="I27" s="0" t="str">
         <f aca="false">IF(J27="", "collectie:eigen", J27)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:c_l_harmonized_classification|</v>
       </c>
       <c r="J27" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K27), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L27), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M27), "", "collectie:pop_regulation|"),IF(ISBLANK(N27), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O27), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:c_l_harmonized_classification|</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P27" s="0" t="s">
         <v>94</v>
@@ -2790,7 +2799,7 @@
         <v>96</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>16</v>
@@ -2800,22 +2809,19 @@
       </c>
       <c r="G28" s="0" t="str">
         <f aca="false">IF(H28="", "zorgwekkende_stof:eigen", H28)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H28" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K28), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L28), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M28), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N28), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O28), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v/>
       </c>
       <c r="I28" s="0" t="str">
         <f aca="false">IF(J28="", "collectie:eigen", J28)</f>
-        <v>collectie:c_l_harmonized_classification|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J28" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K28), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L28), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M28), "", "collectie:pop_regulation|"),IF(ISBLANK(N28), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O28), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|</v>
-      </c>
-      <c r="K28" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P28" s="0" t="s">
         <v>98</v>
@@ -2829,7 +2835,7 @@
         <v>100</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>16</v>
@@ -2839,19 +2845,28 @@
       </c>
       <c r="G29" s="0" t="str">
         <f aca="false">IF(H29="", "zorgwekkende_stof:eigen", H29)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:edlists_org_list_i|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H29" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K29), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L29), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M29), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N29), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O29), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:edlists_org_list_i|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I29" s="0" t="str">
         <f aca="false">IF(J29="", "collectie:eigen", J29)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:c_l_harmonized_classification|collectie:edlists_org_list_i|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J29" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K29), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L29), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M29), "", "collectie:pop_regulation|"),IF(ISBLANK(N29), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O29), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:c_l_harmonized_classification|collectie:edlists_org_list_i|collectie:reach_svhcc_candidate_list|</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P29" s="0" t="s">
         <v>102</v>
@@ -2865,7 +2880,7 @@
         <v>104</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>16</v>
@@ -2875,24 +2890,21 @@
       </c>
       <c r="G30" s="0" t="str">
         <f aca="false">IF(H30="", "zorgwekkende_stof:eigen", H30)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:edlists_org_list_i|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H30" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K30), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L30), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M30), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N30), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O30), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:edlists_org_list_i|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I30" s="0" t="str">
         <f aca="false">IF(J30="", "collectie:eigen", J30)</f>
-        <v>collectie:c_l_harmonized_classification|collectie:edlists_org_list_i|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J30" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K30), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L30), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M30), "", "collectie:pop_regulation|"),IF(ISBLANK(N30), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O30), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|collectie:edlists_org_list_i|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N30" s="0" t="n">
@@ -2910,7 +2922,7 @@
         <v>108</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>16</v>
@@ -2920,25 +2932,19 @@
       </c>
       <c r="G31" s="0" t="str">
         <f aca="false">IF(H31="", "zorgwekkende_stof:eigen", H31)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H31" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K31), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L31), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M31), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N31), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O31), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v/>
       </c>
       <c r="I31" s="0" t="str">
         <f aca="false">IF(J31="", "collectie:eigen", J31)</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J31" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K31), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L31), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M31), "", "collectie:pop_regulation|"),IF(ISBLANK(N31), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O31), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="K31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P31" s="0" t="s">
         <v>110</v>
@@ -2952,7 +2958,7 @@
         <v>112</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>16</v>
@@ -2988,7 +2994,7 @@
         <v>116</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>16</v>
@@ -3024,7 +3030,7 @@
         <v>120</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>16</v>
@@ -3034,19 +3040,25 @@
       </c>
       <c r="G34" s="0" t="str">
         <f aca="false">IF(H34="", "zorgwekkende_stof:eigen", H34)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H34" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K34), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L34), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M34), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N34), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O34), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I34" s="0" t="str">
         <f aca="false">IF(J34="", "collectie:eigen", J34)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J34" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K34), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L34), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M34), "", "collectie:pop_regulation|"),IF(ISBLANK(N34), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O34), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P34" s="0" t="s">
         <v>122</v>
@@ -3060,7 +3072,7 @@
         <v>124</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>16</v>
@@ -3070,24 +3082,21 @@
       </c>
       <c r="G35" s="0" t="str">
         <f aca="false">IF(H35="", "zorgwekkende_stof:eigen", H35)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H35" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K35), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L35), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M35), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N35), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O35), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="I35" s="0" t="str">
         <f aca="false">IF(J35="", "collectie:eigen", J35)</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:c_l_harmonized_classification|</v>
       </c>
       <c r="J35" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K35), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L35), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M35), "", "collectie:pop_regulation|"),IF(ISBLANK(N35), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O35), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:c_l_harmonized_classification|</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="P35" s="0" t="s">
@@ -3097,12 +3106,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>16</v>
@@ -3112,21 +3121,21 @@
       </c>
       <c r="G36" s="0" t="str">
         <f aca="false">IF(H36="", "zorgwekkende_stof:eigen", H36)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H36" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K36), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L36), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M36), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N36), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O36), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I36" s="0" t="str">
         <f aca="false">IF(J36="", "collectie:eigen", J36)</f>
-        <v>collectie:c_l_harmonized_classification|</v>
+        <v>collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J36" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K36), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L36), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M36), "", "collectie:pop_regulation|"),IF(ISBLANK(N36), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O36), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|</v>
-      </c>
-      <c r="K36" s="0" t="n">
+        <v>collectie:reach_svhcc_candidate_list|</v>
+      </c>
+      <c r="N36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="P36" s="0" t="s">
@@ -3136,12 +3145,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>16</v>
@@ -3180,7 +3189,7 @@
         <v>136</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>16</v>
@@ -3190,22 +3199,19 @@
       </c>
       <c r="G38" s="0" t="str">
         <f aca="false">IF(H38="", "zorgwekkende_stof:eigen", H38)</f>
-        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H38" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K38), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L38), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M38), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N38), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O38), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v/>
       </c>
       <c r="I38" s="0" t="str">
         <f aca="false">IF(J38="", "collectie:eigen", J38)</f>
-        <v>collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J38" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K38), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L38), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M38), "", "collectie:pop_regulation|"),IF(ISBLANK(N38), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O38), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="N38" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P38" s="0" t="s">
         <v>138</v>
@@ -3219,7 +3225,7 @@
         <v>140</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>16</v>
@@ -3255,7 +3261,7 @@
         <v>144</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>16</v>
@@ -3265,19 +3271,22 @@
       </c>
       <c r="G40" s="0" t="str">
         <f aca="false">IF(H40="", "zorgwekkende_stof:eigen", H40)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H40" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K40), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L40), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M40), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N40), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O40), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="I40" s="0" t="str">
         <f aca="false">IF(J40="", "collectie:eigen", J40)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:c_l_harmonized_classification|</v>
       </c>
       <c r="J40" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K40), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L40), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M40), "", "collectie:pop_regulation|"),IF(ISBLANK(N40), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O40), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:c_l_harmonized_classification|</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P40" s="0" t="s">
         <v>146</v>
@@ -3291,7 +3300,7 @@
         <v>148</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>16</v>
@@ -3301,22 +3310,19 @@
       </c>
       <c r="G41" s="0" t="str">
         <f aca="false">IF(H41="", "zorgwekkende_stof:eigen", H41)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H41" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K41), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L41), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M41), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N41), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O41), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v/>
       </c>
       <c r="I41" s="0" t="str">
         <f aca="false">IF(J41="", "collectie:eigen", J41)</f>
-        <v>collectie:c_l_harmonized_classification|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J41" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K41), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L41), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M41), "", "collectie:pop_regulation|"),IF(ISBLANK(N41), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O41), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|</v>
-      </c>
-      <c r="K41" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P41" s="0" t="s">
         <v>150</v>
@@ -3330,7 +3336,7 @@
         <v>152</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>16</v>
@@ -3366,10 +3372,7 @@
         <v>156</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>157</v>
@@ -3402,26 +3405,29 @@
         <v>160</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>161</v>
       </c>
       <c r="G44" s="0" t="str">
         <f aca="false">IF(H44="", "zorgwekkende_stof:eigen", H44)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H44" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K44), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L44), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M44), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N44), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O44), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="I44" s="0" t="str">
         <f aca="false">IF(J44="", "collectie:eigen", J44)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:c_l_harmonized_classification|</v>
       </c>
       <c r="J44" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K44), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L44), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M44), "", "collectie:pop_regulation|"),IF(ISBLANK(N44), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O44), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:c_l_harmonized_classification|</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P44" s="0" t="s">
         <v>162</v>
@@ -3435,28 +3441,31 @@
         <v>164</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>165</v>
       </c>
       <c r="G45" s="0" t="str">
         <f aca="false">IF(H45="", "zorgwekkende_stof:eigen", H45)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H45" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K45), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L45), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M45), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N45), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O45), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I45" s="0" t="str">
         <f aca="false">IF(J45="", "collectie:eigen", J45)</f>
-        <v>collectie:c_l_harmonized_classification|</v>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J45" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K45), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L45), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M45), "", "collectie:pop_regulation|"),IF(ISBLANK(N45), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O45), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|</v>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="K45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" s="0" t="n">
         <v>1</v>
       </c>
       <c r="P45" s="0" t="s">
@@ -3471,28 +3480,31 @@
         <v>168</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>169</v>
       </c>
       <c r="G46" s="0" t="str">
         <f aca="false">IF(H46="", "zorgwekkende_stof:eigen", H46)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:edlists_org_list_i|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H46" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K46), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L46), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M46), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N46), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O46), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:edlists_org_list_i|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I46" s="0" t="str">
         <f aca="false">IF(J46="", "collectie:eigen", J46)</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:c_l_harmonized_classification|collectie:edlists_org_list_i|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J46" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K46), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L46), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M46), "", "collectie:pop_regulation|"),IF(ISBLANK(N46), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O46), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:c_l_harmonized_classification|collectie:edlists_org_list_i|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="K46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N46" s="0" t="n">
@@ -3510,31 +3522,28 @@
         <v>172</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>173</v>
       </c>
       <c r="G47" s="0" t="str">
         <f aca="false">IF(H47="", "zorgwekkende_stof:eigen", H47)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:edlists_org_list_i|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H47" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K47), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L47), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M47), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N47), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O47), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:edlists_org_list_i|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I47" s="0" t="str">
         <f aca="false">IF(J47="", "collectie:eigen", J47)</f>
-        <v>collectie:c_l_harmonized_classification|collectie:edlists_org_list_i|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J47" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K47), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L47), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M47), "", "collectie:pop_regulation|"),IF(ISBLANK(N47), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O47), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|collectie:edlists_org_list_i|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L47" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N47" s="0" t="n">
@@ -3552,28 +3561,31 @@
         <v>176</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>177</v>
       </c>
       <c r="G48" s="0" t="str">
         <f aca="false">IF(H48="", "zorgwekkende_stof:eigen", H48)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:edlists_org_list_i|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H48" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K48), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L48), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M48), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N48), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O48), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:edlists_org_list_i|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I48" s="0" t="str">
         <f aca="false">IF(J48="", "collectie:eigen", J48)</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:c_l_harmonized_classification|collectie:edlists_org_list_i|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J48" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K48), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L48), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M48), "", "collectie:pop_regulation|"),IF(ISBLANK(N48), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O48), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:c_l_harmonized_classification|collectie:edlists_org_list_i|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="K48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N48" s="0" t="n">
@@ -3586,40 +3598,31 @@
         <v>179</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>181</v>
       </c>
       <c r="G49" s="0" t="str">
         <f aca="false">IF(H49="", "zorgwekkende_stof:eigen", H49)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:edlists_org_list_i|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H49" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K49), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L49), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M49), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N49), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O49), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:edlists_org_list_i|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v/>
       </c>
       <c r="I49" s="0" t="str">
         <f aca="false">IF(J49="", "collectie:eigen", J49)</f>
-        <v>collectie:c_l_harmonized_classification|collectie:edlists_org_list_i|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J49" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K49), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L49), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M49), "", "collectie:pop_regulation|"),IF(ISBLANK(N49), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O49), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|collectie:edlists_org_list_i|collectie:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="K49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P49" s="0" t="s">
         <v>182</v>
@@ -3633,26 +3636,32 @@
         <v>184</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>185</v>
       </c>
       <c r="G50" s="0" t="str">
         <f aca="false">IF(H50="", "zorgwekkende_stof:eigen", H50)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H50" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K50), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L50), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M50), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N50), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O50), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I50" s="0" t="str">
         <f aca="false">IF(J50="", "collectie:eigen", J50)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J50" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K50), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L50), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M50), "", "collectie:pop_regulation|"),IF(ISBLANK(N50), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O50), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P50" s="0" t="s">
         <v>186</v>
@@ -3666,31 +3675,28 @@
         <v>188</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>189</v>
       </c>
       <c r="G51" s="0" t="str">
         <f aca="false">IF(H51="", "zorgwekkende_stof:eigen", H51)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H51" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K51), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L51), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M51), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N51), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O51), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="I51" s="0" t="str">
         <f aca="false">IF(J51="", "collectie:eigen", J51)</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:c_l_harmonized_classification|</v>
       </c>
       <c r="J51" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K51), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L51), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M51), "", "collectie:pop_regulation|"),IF(ISBLANK(N51), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O51), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:c_l_harmonized_classification|</v>
       </c>
       <c r="K51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="P51" s="0" t="s">
@@ -3700,34 +3706,31 @@
         <v>191</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>193</v>
       </c>
       <c r="G52" s="0" t="str">
         <f aca="false">IF(H52="", "zorgwekkende_stof:eigen", H52)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H52" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K52), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L52), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M52), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N52), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O52), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v/>
       </c>
       <c r="I52" s="0" t="str">
         <f aca="false">IF(J52="", "collectie:eigen", J52)</f>
-        <v>collectie:c_l_harmonized_classification|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J52" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K52), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L52), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M52), "", "collectie:pop_regulation|"),IF(ISBLANK(N52), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O52), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|</v>
-      </c>
-      <c r="K52" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P52" s="0" t="s">
         <v>194</v>
@@ -3741,26 +3744,29 @@
         <v>196</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>197</v>
       </c>
       <c r="G53" s="0" t="str">
         <f aca="false">IF(H53="", "zorgwekkende_stof:eigen", H53)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H53" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K53), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L53), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M53), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N53), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O53), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I53" s="0" t="str">
         <f aca="false">IF(J53="", "collectie:eigen", J53)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J53" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K53), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L53), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M53), "", "collectie:pop_regulation|"),IF(ISBLANK(N53), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O53), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:reach_svhcc_candidate_list|</v>
+      </c>
+      <c r="N53" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P53" s="0" t="s">
         <v>198</v>
@@ -3769,31 +3775,34 @@
         <v>199</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>200</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>201</v>
       </c>
       <c r="G54" s="0" t="str">
         <f aca="false">IF(H54="", "zorgwekkende_stof:eigen", H54)</f>
-        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:edlists_org_list_i|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H54" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K54), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L54), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M54), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N54), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O54), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:edlists_org_list_i|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I54" s="0" t="str">
         <f aca="false">IF(J54="", "collectie:eigen", J54)</f>
-        <v>collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:edlists_org_list_i|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J54" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K54), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L54), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M54), "", "collectie:pop_regulation|"),IF(ISBLANK(N54), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O54), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:edlists_org_list_i|collectie:reach_svhcc_candidate_list|</v>
+      </c>
+      <c r="L54" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="N54" s="0" t="n">
         <v>1</v>
@@ -3805,37 +3814,37 @@
         <v>203</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>204</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>205</v>
       </c>
       <c r="G55" s="0" t="str">
         <f aca="false">IF(H55="", "zorgwekkende_stof:eigen", H55)</f>
-        <v>zorgwekkende_stof:edlists_org_list_i|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H55" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K55), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L55), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M55), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N55), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O55), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:edlists_org_list_i|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I55" s="0" t="str">
         <f aca="false">IF(J55="", "collectie:eigen", J55)</f>
-        <v>collectie:edlists_org_list_i|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J55" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K55), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L55), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M55), "", "collectie:pop_regulation|"),IF(ISBLANK(N55), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O55), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:edlists_org_list_i|collectie:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="L55" s="0" t="n">
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+      </c>
+      <c r="K55" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N55" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P55" s="0" t="s">
         <v>206</v>
@@ -3849,32 +3858,26 @@
         <v>208</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>209</v>
       </c>
       <c r="G56" s="0" t="str">
         <f aca="false">IF(H56="", "zorgwekkende_stof:eigen", H56)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H56" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K56), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L56), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M56), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N56), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O56), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v/>
       </c>
       <c r="I56" s="0" t="str">
         <f aca="false">IF(J56="", "collectie:eigen", J56)</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J56" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K56), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L56), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M56), "", "collectie:pop_regulation|"),IF(ISBLANK(N56), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O56), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="K56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" s="0" t="n">
-        <v>2</v>
+        <v/>
       </c>
       <c r="P56" s="0" t="s">
         <v>210</v>
@@ -3888,26 +3891,29 @@
         <v>212</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>213</v>
       </c>
       <c r="G57" s="0" t="str">
         <f aca="false">IF(H57="", "zorgwekkende_stof:eigen", H57)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H57" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K57), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L57), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M57), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N57), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O57), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="I57" s="0" t="str">
         <f aca="false">IF(J57="", "collectie:eigen", J57)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:c_l_harmonized_classification|</v>
       </c>
       <c r="J57" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K57), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L57), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M57), "", "collectie:pop_regulation|"),IF(ISBLANK(N57), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O57), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:c_l_harmonized_classification|</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P57" s="0" t="s">
         <v>214</v>
@@ -3921,7 +3927,7 @@
         <v>216</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>217</v>
@@ -3957,28 +3963,31 @@
         <v>220</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>221</v>
       </c>
       <c r="G59" s="0" t="str">
         <f aca="false">IF(H59="", "zorgwekkende_stof:eigen", H59)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H59" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K59), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L59), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M59), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N59), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O59), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I59" s="0" t="str">
         <f aca="false">IF(J59="", "collectie:eigen", J59)</f>
-        <v>collectie:c_l_harmonized_classification|</v>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J59" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K59), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L59), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M59), "", "collectie:pop_regulation|"),IF(ISBLANK(N59), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O59), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|</v>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="K59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" s="0" t="n">
         <v>1</v>
       </c>
       <c r="P59" s="0" t="s">
@@ -3993,32 +4002,26 @@
         <v>224</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>225</v>
       </c>
       <c r="G60" s="0" t="str">
         <f aca="false">IF(H60="", "zorgwekkende_stof:eigen", H60)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H60" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K60), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L60), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M60), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N60), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O60), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v/>
       </c>
       <c r="I60" s="0" t="str">
         <f aca="false">IF(J60="", "collectie:eigen", J60)</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J60" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K60), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L60), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M60), "", "collectie:pop_regulation|"),IF(ISBLANK(N60), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O60), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="K60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P60" s="0" t="s">
         <v>226</v>
@@ -4032,26 +4035,29 @@
         <v>228</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>229</v>
       </c>
       <c r="G61" s="0" t="str">
         <f aca="false">IF(H61="", "zorgwekkende_stof:eigen", H61)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H61" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K61), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L61), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M61), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N61), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O61), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="I61" s="0" t="str">
         <f aca="false">IF(J61="", "collectie:eigen", J61)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:c_l_harmonized_classification|</v>
       </c>
       <c r="J61" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K61), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L61), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M61), "", "collectie:pop_regulation|"),IF(ISBLANK(N61), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O61), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:c_l_harmonized_classification|</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P61" s="0" t="s">
         <v>230</v>
@@ -4065,29 +4071,26 @@
         <v>232</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>233</v>
       </c>
       <c r="G62" s="0" t="str">
         <f aca="false">IF(H62="", "zorgwekkende_stof:eigen", H62)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H62" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K62), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L62), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M62), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N62), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O62), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v/>
       </c>
       <c r="I62" s="0" t="str">
         <f aca="false">IF(J62="", "collectie:eigen", J62)</f>
-        <v>collectie:c_l_harmonized_classification|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J62" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K62), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L62), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M62), "", "collectie:pop_regulation|"),IF(ISBLANK(N62), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O62), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|</v>
-      </c>
-      <c r="K62" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P62" s="0" t="s">
         <v>234</v>
@@ -4101,7 +4104,7 @@
         <v>236</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>237</v>
@@ -4134,7 +4137,7 @@
         <v>240</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>241</v>
@@ -4167,26 +4170,29 @@
         <v>244</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>245</v>
       </c>
       <c r="G65" s="0" t="str">
         <f aca="false">IF(H65="", "zorgwekkende_stof:eigen", H65)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H65" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K65), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L65), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M65), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N65), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O65), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="I65" s="0" t="str">
         <f aca="false">IF(J65="", "collectie:eigen", J65)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:c_l_harmonized_classification|</v>
       </c>
       <c r="J65" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K65), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L65), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M65), "", "collectie:pop_regulation|"),IF(ISBLANK(N65), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O65), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:c_l_harmonized_classification|</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P65" s="0" t="s">
         <v>246</v>
@@ -4200,28 +4206,28 @@
         <v>248</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>249</v>
       </c>
       <c r="G66" s="0" t="str">
         <f aca="false">IF(H66="", "zorgwekkende_stof:eigen", H66)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H66" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K66), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L66), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M66), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N66), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O66), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I66" s="0" t="str">
         <f aca="false">IF(J66="", "collectie:eigen", J66)</f>
-        <v>collectie:c_l_harmonized_classification|</v>
+        <v>collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J66" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K66), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L66), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M66), "", "collectie:pop_regulation|"),IF(ISBLANK(N66), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O66), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|</v>
-      </c>
-      <c r="K66" s="0" t="n">
+        <v>collectie:reach_svhcc_candidate_list|</v>
+      </c>
+      <c r="N66" s="0" t="n">
         <v>1</v>
       </c>
       <c r="P66" s="0" t="s">
@@ -4236,29 +4242,26 @@
         <v>252</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>253</v>
       </c>
       <c r="G67" s="0" t="str">
         <f aca="false">IF(H67="", "zorgwekkende_stof:eigen", H67)</f>
-        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H67" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K67), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L67), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M67), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N67), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O67), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v/>
       </c>
       <c r="I67" s="0" t="str">
         <f aca="false">IF(J67="", "collectie:eigen", J67)</f>
-        <v>collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J67" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K67), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L67), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M67), "", "collectie:pop_regulation|"),IF(ISBLANK(N67), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O67), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="N67" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P67" s="0" t="s">
         <v>254</v>
@@ -4272,26 +4275,35 @@
         <v>256</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>257</v>
       </c>
       <c r="G68" s="0" t="str">
         <f aca="false">IF(H68="", "zorgwekkende_stof:eigen", H68)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:edlists_org_list_i|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H68" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K68), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L68), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M68), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N68), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O68), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:edlists_org_list_i|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I68" s="0" t="str">
         <f aca="false">IF(J68="", "collectie:eigen", J68)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:c_l_harmonized_classification|collectie:edlists_org_list_i|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J68" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K68), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L68), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M68), "", "collectie:pop_regulation|"),IF(ISBLANK(N68), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O68), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:c_l_harmonized_classification|collectie:edlists_org_list_i|collectie:reach_svhcc_candidate_list|</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P68" s="0" t="s">
         <v>258</v>
@@ -4305,35 +4317,26 @@
         <v>260</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>261</v>
       </c>
       <c r="G69" s="0" t="str">
         <f aca="false">IF(H69="", "zorgwekkende_stof:eigen", H69)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:edlists_org_list_i|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H69" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K69), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L69), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M69), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N69), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O69), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:edlists_org_list_i|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v/>
       </c>
       <c r="I69" s="0" t="str">
         <f aca="false">IF(J69="", "collectie:eigen", J69)</f>
-        <v>collectie:c_l_harmonized_classification|collectie:edlists_org_list_i|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J69" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K69), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L69), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M69), "", "collectie:pop_regulation|"),IF(ISBLANK(N69), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O69), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|collectie:edlists_org_list_i|collectie:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="K69" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L69" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P69" s="0" t="s">
         <v>262</v>
@@ -4347,7 +4350,7 @@
         <v>264</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>265</v>
@@ -4380,26 +4383,29 @@
         <v>268</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>269</v>
       </c>
       <c r="G71" s="0" t="str">
         <f aca="false">IF(H71="", "zorgwekkende_stof:eigen", H71)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H71" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K71), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L71), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M71), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N71), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O71), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I71" s="0" t="str">
         <f aca="false">IF(J71="", "collectie:eigen", J71)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J71" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K71), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L71), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M71), "", "collectie:pop_regulation|"),IF(ISBLANK(N71), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O71), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:reach_svhcc_candidate_list|</v>
+      </c>
+      <c r="N71" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P71" s="0" t="s">
         <v>270</v>
@@ -4413,29 +4419,26 @@
         <v>272</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>273</v>
       </c>
       <c r="G72" s="0" t="str">
         <f aca="false">IF(H72="", "zorgwekkende_stof:eigen", H72)</f>
-        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H72" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K72), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L72), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M72), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N72), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O72), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v/>
       </c>
       <c r="I72" s="0" t="str">
         <f aca="false">IF(J72="", "collectie:eigen", J72)</f>
-        <v>collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J72" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K72), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L72), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M72), "", "collectie:pop_regulation|"),IF(ISBLANK(N72), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O72), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="N72" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P72" s="0" t="s">
         <v>274</v>
@@ -4449,26 +4452,29 @@
         <v>276</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>277</v>
       </c>
       <c r="G73" s="0" t="str">
         <f aca="false">IF(H73="", "zorgwekkende_stof:eigen", H73)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H73" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K73), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L73), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M73), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N73), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O73), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="I73" s="0" t="str">
         <f aca="false">IF(J73="", "collectie:eigen", J73)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:c_l_harmonized_classification|</v>
       </c>
       <c r="J73" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K73), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L73), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M73), "", "collectie:pop_regulation|"),IF(ISBLANK(N73), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O73), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:c_l_harmonized_classification|</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P73" s="0" t="s">
         <v>278</v>
@@ -4482,7 +4488,7 @@
         <v>280</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>281</v>
@@ -4518,7 +4524,7 @@
         <v>284</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>285</v>
@@ -4554,29 +4560,26 @@
         <v>288</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>289</v>
       </c>
       <c r="G76" s="0" t="str">
         <f aca="false">IF(H76="", "zorgwekkende_stof:eigen", H76)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H76" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K76), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L76), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M76), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N76), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O76), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v/>
       </c>
       <c r="I76" s="0" t="str">
         <f aca="false">IF(J76="", "collectie:eigen", J76)</f>
-        <v>collectie:c_l_harmonized_classification|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J76" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K76), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L76), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M76), "", "collectie:pop_regulation|"),IF(ISBLANK(N76), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O76), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|</v>
-      </c>
-      <c r="K76" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P76" s="0" t="s">
         <v>290</v>
@@ -4590,7 +4593,7 @@
         <v>292</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>293</v>
@@ -4623,7 +4626,7 @@
         <v>296</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>297</v>
@@ -4656,7 +4659,7 @@
         <v>300</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>301</v>
@@ -4689,26 +4692,29 @@
         <v>304</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>305</v>
       </c>
       <c r="G80" s="0" t="str">
         <f aca="false">IF(H80="", "zorgwekkende_stof:eigen", H80)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H80" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K80), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L80), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M80), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N80), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O80), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="I80" s="0" t="str">
         <f aca="false">IF(J80="", "collectie:eigen", J80)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:c_l_harmonized_classification|</v>
       </c>
       <c r="J80" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K80), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L80), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M80), "", "collectie:pop_regulation|"),IF(ISBLANK(N80), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O80), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:c_l_harmonized_classification|</v>
+      </c>
+      <c r="K80" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P80" s="0" t="s">
         <v>306</v>
@@ -4722,29 +4728,26 @@
         <v>308</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>309</v>
       </c>
       <c r="G81" s="0" t="str">
         <f aca="false">IF(H81="", "zorgwekkende_stof:eigen", H81)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H81" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K81), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L81), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M81), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N81), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O81), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v/>
       </c>
       <c r="I81" s="0" t="str">
         <f aca="false">IF(J81="", "collectie:eigen", J81)</f>
-        <v>collectie:c_l_harmonized_classification|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J81" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K81), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L81), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M81), "", "collectie:pop_regulation|"),IF(ISBLANK(N81), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O81), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|</v>
-      </c>
-      <c r="K81" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P81" s="0" t="s">
         <v>310</v>
@@ -4758,26 +4761,32 @@
         <v>312</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>313</v>
       </c>
       <c r="G82" s="0" t="str">
         <f aca="false">IF(H82="", "zorgwekkende_stof:eigen", H82)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H82" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K82), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L82), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M82), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N82), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O82), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I82" s="0" t="str">
         <f aca="false">IF(J82="", "collectie:eigen", J82)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J82" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K82), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L82), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M82), "", "collectie:pop_regulation|"),IF(ISBLANK(N82), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O82), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+      </c>
+      <c r="K82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P82" s="0" t="s">
         <v>314</v>
@@ -4791,32 +4800,26 @@
         <v>316</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>317</v>
       </c>
       <c r="G83" s="0" t="str">
         <f aca="false">IF(H83="", "zorgwekkende_stof:eigen", H83)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H83" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K83), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L83), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M83), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N83), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O83), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v/>
       </c>
       <c r="I83" s="0" t="str">
         <f aca="false">IF(J83="", "collectie:eigen", J83)</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J83" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K83), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L83), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M83), "", "collectie:pop_regulation|"),IF(ISBLANK(N83), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O83), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="K83" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P83" s="0" t="s">
         <v>318</v>
@@ -4830,7 +4833,7 @@
         <v>320</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>321</v>
@@ -4863,7 +4866,7 @@
         <v>324</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>325</v>
@@ -4896,7 +4899,7 @@
         <v>328</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>329</v>
@@ -4929,7 +4932,7 @@
         <v>332</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>333</v>
@@ -4962,7 +4965,7 @@
         <v>336</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>337</v>
@@ -4995,26 +4998,29 @@
         <v>340</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>341</v>
       </c>
       <c r="G89" s="0" t="str">
         <f aca="false">IF(H89="", "zorgwekkende_stof:eigen", H89)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H89" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K89), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L89), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M89), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N89), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O89), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="I89" s="0" t="str">
         <f aca="false">IF(J89="", "collectie:eigen", J89)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:c_l_harmonized_classification|</v>
       </c>
       <c r="J89" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K89), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L89), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M89), "", "collectie:pop_regulation|"),IF(ISBLANK(N89), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O89), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:c_l_harmonized_classification|</v>
+      </c>
+      <c r="K89" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P89" s="0" t="s">
         <v>342</v>
@@ -5028,7 +5034,7 @@
         <v>344</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>345</v>
@@ -5064,29 +5070,26 @@
         <v>348</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>349</v>
       </c>
       <c r="G91" s="0" t="str">
         <f aca="false">IF(H91="", "zorgwekkende_stof:eigen", H91)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H91" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K91), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L91), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M91), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N91), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O91), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v/>
       </c>
       <c r="I91" s="0" t="str">
         <f aca="false">IF(J91="", "collectie:eigen", J91)</f>
-        <v>collectie:c_l_harmonized_classification|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J91" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K91), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L91), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M91), "", "collectie:pop_regulation|"),IF(ISBLANK(N91), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O91), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|</v>
-      </c>
-      <c r="K91" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P91" s="0" t="s">
         <v>350</v>
@@ -5100,26 +5103,29 @@
         <v>352</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>353</v>
       </c>
       <c r="G92" s="0" t="str">
         <f aca="false">IF(H92="", "zorgwekkende_stof:eigen", H92)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H92" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K92), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L92), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M92), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N92), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O92), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I92" s="0" t="str">
         <f aca="false">IF(J92="", "collectie:eigen", J92)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J92" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K92), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L92), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M92), "", "collectie:pop_regulation|"),IF(ISBLANK(N92), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O92), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:reach_svhcc_candidate_list|</v>
+      </c>
+      <c r="N92" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P92" s="0" t="s">
         <v>354</v>
@@ -5133,29 +5139,26 @@
         <v>356</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>357</v>
       </c>
       <c r="G93" s="0" t="str">
         <f aca="false">IF(H93="", "zorgwekkende_stof:eigen", H93)</f>
-        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H93" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K93), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L93), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M93), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N93), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O93), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v/>
       </c>
       <c r="I93" s="0" t="str">
         <f aca="false">IF(J93="", "collectie:eigen", J93)</f>
-        <v>collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J93" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K93), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L93), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M93), "", "collectie:pop_regulation|"),IF(ISBLANK(N93), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O93), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="N93" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P93" s="0" t="s">
         <v>358</v>
@@ -5169,7 +5172,7 @@
         <v>360</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>361</v>
@@ -5202,26 +5205,32 @@
         <v>364</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>365</v>
       </c>
       <c r="G95" s="0" t="str">
         <f aca="false">IF(H95="", "zorgwekkende_stof:eigen", H95)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H95" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K95), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L95), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M95), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N95), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O95), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I95" s="0" t="str">
         <f aca="false">IF(J95="", "collectie:eigen", J95)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J95" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K95), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L95), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M95), "", "collectie:pop_regulation|"),IF(ISBLANK(N95), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O95), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+      </c>
+      <c r="K95" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P95" s="0" t="s">
         <v>366</v>
@@ -5230,12 +5239,12 @@
         <v>367</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
         <v>368</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>369</v>
@@ -5269,37 +5278,31 @@
         <v>371</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
         <v>372</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>373</v>
       </c>
       <c r="G97" s="0" t="str">
         <f aca="false">IF(H97="", "zorgwekkende_stof:eigen", H97)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H97" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K97), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L97), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M97), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N97), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O97), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v/>
       </c>
       <c r="I97" s="0" t="str">
         <f aca="false">IF(J97="", "collectie:eigen", J97)</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J97" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K97), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L97), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M97), "", "collectie:pop_regulation|"),IF(ISBLANK(N97), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O97), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="K97" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P97" s="0" t="s">
         <v>374</v>
@@ -5308,31 +5311,34 @@
         <v>375</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
         <v>376</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>377</v>
       </c>
       <c r="G98" s="0" t="str">
         <f aca="false">IF(H98="", "zorgwekkende_stof:eigen", H98)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H98" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K98), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L98), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M98), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N98), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O98), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I98" s="0" t="str">
         <f aca="false">IF(J98="", "collectie:eigen", J98)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J98" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K98), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L98), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M98), "", "collectie:pop_regulation|"),IF(ISBLANK(N98), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O98), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:reach_svhcc_candidate_list|</v>
+      </c>
+      <c r="N98" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P98" s="0" t="s">
         <v>378</v>
@@ -5341,33 +5347,33 @@
         <v>379</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
         <v>380</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>381</v>
       </c>
       <c r="G99" s="0" t="str">
         <f aca="false">IF(H99="", "zorgwekkende_stof:eigen", H99)</f>
-        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H99" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K99), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L99), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M99), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N99), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O99), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="I99" s="0" t="str">
         <f aca="false">IF(J99="", "collectie:eigen", J99)</f>
-        <v>collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:c_l_harmonized_classification|</v>
       </c>
       <c r="J99" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K99), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L99), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M99), "", "collectie:pop_regulation|"),IF(ISBLANK(N99), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O99), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="N99" s="0" t="n">
+        <v>collectie:c_l_harmonized_classification|</v>
+      </c>
+      <c r="K99" s="0" t="n">
         <v>1</v>
       </c>
       <c r="P99" s="0" t="s">
@@ -5382,28 +5388,31 @@
         <v>384</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>385</v>
       </c>
       <c r="G100" s="0" t="str">
         <f aca="false">IF(H100="", "zorgwekkende_stof:eigen", H100)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H100" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K100), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L100), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M100), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N100), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O100), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I100" s="0" t="str">
         <f aca="false">IF(J100="", "collectie:eigen", J100)</f>
-        <v>collectie:c_l_harmonized_classification|</v>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J100" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K100), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L100), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M100), "", "collectie:pop_regulation|"),IF(ISBLANK(N100), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O100), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|</v>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="K100" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" s="0" t="n">
         <v>1</v>
       </c>
       <c r="P100" s="0" t="s">
@@ -5418,32 +5427,26 @@
         <v>388</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>389</v>
       </c>
       <c r="G101" s="0" t="str">
         <f aca="false">IF(H101="", "zorgwekkende_stof:eigen", H101)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H101" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K101), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L101), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M101), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N101), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O101), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v/>
       </c>
       <c r="I101" s="0" t="str">
         <f aca="false">IF(J101="", "collectie:eigen", J101)</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J101" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K101), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L101), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M101), "", "collectie:pop_regulation|"),IF(ISBLANK(N101), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O101), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="K101" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P101" s="0" t="s">
         <v>390</v>
@@ -5457,7 +5460,7 @@
         <v>392</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>393</v>
@@ -5490,7 +5493,7 @@
         <v>396</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>397</v>
@@ -5523,26 +5526,32 @@
         <v>400</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>401</v>
       </c>
       <c r="G104" s="0" t="str">
         <f aca="false">IF(H104="", "zorgwekkende_stof:eigen", H104)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H104" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K104), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L104), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M104), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N104), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O104), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I104" s="0" t="str">
         <f aca="false">IF(J104="", "collectie:eigen", J104)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J104" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K104), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L104), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M104), "", "collectie:pop_regulation|"),IF(ISBLANK(N104), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O104), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+      </c>
+      <c r="K104" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P104" s="0" t="s">
         <v>402</v>
@@ -5556,29 +5565,26 @@
         <v>404</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>405</v>
       </c>
       <c r="G105" s="0" t="str">
         <f aca="false">IF(H105="", "zorgwekkende_stof:eigen", H105)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H105" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K105), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L105), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M105), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N105), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O105), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I105" s="0" t="str">
         <f aca="false">IF(J105="", "collectie:eigen", J105)</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J105" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K105), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L105), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M105), "", "collectie:pop_regulation|"),IF(ISBLANK(N105), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O105), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="K105" s="0" t="n">
-        <v>1</v>
+        <v>collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="N105" s="0" t="n">
         <v>1</v>
@@ -5595,29 +5601,26 @@
         <v>408</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>409</v>
       </c>
       <c r="G106" s="0" t="str">
         <f aca="false">IF(H106="", "zorgwekkende_stof:eigen", H106)</f>
-        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H106" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K106), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L106), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M106), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N106), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O106), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v/>
       </c>
       <c r="I106" s="0" t="str">
         <f aca="false">IF(J106="", "collectie:eigen", J106)</f>
-        <v>collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J106" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K106), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L106), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M106), "", "collectie:pop_regulation|"),IF(ISBLANK(N106), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O106), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="N106" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P106" s="0" t="s">
         <v>410</v>
@@ -5631,7 +5634,7 @@
         <v>412</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>413</v>
@@ -5664,7 +5667,7 @@
         <v>416</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>417</v>
@@ -5697,26 +5700,29 @@
         <v>420</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>421</v>
       </c>
       <c r="G109" s="0" t="str">
         <f aca="false">IF(H109="", "zorgwekkende_stof:eigen", H109)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H109" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K109), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L109), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M109), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N109), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O109), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="I109" s="0" t="str">
         <f aca="false">IF(J109="", "collectie:eigen", J109)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:c_l_harmonized_classification|</v>
       </c>
       <c r="J109" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K109), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L109), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M109), "", "collectie:pop_regulation|"),IF(ISBLANK(N109), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O109), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:c_l_harmonized_classification|</v>
+      </c>
+      <c r="K109" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P109" s="0" t="s">
         <v>422</v>
@@ -5730,7 +5736,7 @@
         <v>424</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>425</v>
@@ -5766,29 +5772,26 @@
         <v>428</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>429</v>
       </c>
       <c r="G111" s="0" t="str">
         <f aca="false">IF(H111="", "zorgwekkende_stof:eigen", H111)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H111" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K111), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L111), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M111), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N111), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O111), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v/>
       </c>
       <c r="I111" s="0" t="str">
         <f aca="false">IF(J111="", "collectie:eigen", J111)</f>
-        <v>collectie:c_l_harmonized_classification|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J111" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K111), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L111), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M111), "", "collectie:pop_regulation|"),IF(ISBLANK(N111), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O111), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|</v>
-      </c>
-      <c r="K111" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P111" s="0" t="s">
         <v>430</v>
@@ -5802,26 +5805,32 @@
         <v>432</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>433</v>
       </c>
       <c r="G112" s="0" t="str">
         <f aca="false">IF(H112="", "zorgwekkende_stof:eigen", H112)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H112" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K112), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L112), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M112), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N112), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O112), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I112" s="0" t="str">
         <f aca="false">IF(J112="", "collectie:eigen", J112)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J112" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K112), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L112), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M112), "", "collectie:pop_regulation|"),IF(ISBLANK(N112), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O112), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+      </c>
+      <c r="K112" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P112" s="0" t="s">
         <v>434</v>
@@ -5835,7 +5844,7 @@
         <v>436</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>437</v>
@@ -5874,32 +5883,26 @@
         <v>440</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>441</v>
       </c>
       <c r="G114" s="0" t="str">
         <f aca="false">IF(H114="", "zorgwekkende_stof:eigen", H114)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H114" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K114), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L114), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M114), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N114), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O114), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v/>
       </c>
       <c r="I114" s="0" t="str">
         <f aca="false">IF(J114="", "collectie:eigen", J114)</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J114" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K114), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L114), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M114), "", "collectie:pop_regulation|"),IF(ISBLANK(N114), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O114), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="K114" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P114" s="0" t="s">
         <v>442</v>
@@ -5913,7 +5916,7 @@
         <v>444</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>445</v>
@@ -5946,7 +5949,7 @@
         <v>448</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>449</v>
@@ -5979,26 +5982,35 @@
         <v>452</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>453</v>
       </c>
       <c r="G117" s="0" t="str">
         <f aca="false">IF(H117="", "zorgwekkende_stof:eigen", H117)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:edlists_org_list_i|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H117" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K117), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L117), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M117), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N117), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O117), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:edlists_org_list_i|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I117" s="0" t="str">
         <f aca="false">IF(J117="", "collectie:eigen", J117)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:c_l_harmonized_classification|collectie:edlists_org_list_i|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J117" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K117), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L117), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M117), "", "collectie:pop_regulation|"),IF(ISBLANK(N117), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O117), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:c_l_harmonized_classification|collectie:edlists_org_list_i|collectie:reach_svhcc_candidate_list|</v>
+      </c>
+      <c r="K117" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P117" s="0" t="s">
         <v>454</v>
@@ -6007,36 +6019,33 @@
         <v>455</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
         <v>456</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>457</v>
       </c>
       <c r="G118" s="0" t="str">
         <f aca="false">IF(H118="", "zorgwekkende_stof:eigen", H118)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:edlists_org_list_i|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H118" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K118), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L118), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M118), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N118), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O118), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:edlists_org_list_i|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I118" s="0" t="str">
         <f aca="false">IF(J118="", "collectie:eigen", J118)</f>
-        <v>collectie:c_l_harmonized_classification|collectie:edlists_org_list_i|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J118" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K118), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L118), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M118), "", "collectie:pop_regulation|"),IF(ISBLANK(N118), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O118), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|collectie:edlists_org_list_i|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="K118" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L118" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N118" s="0" t="n">
@@ -6049,37 +6058,31 @@
         <v>459</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
         <v>460</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>461</v>
       </c>
       <c r="G119" s="0" t="str">
         <f aca="false">IF(H119="", "zorgwekkende_stof:eigen", H119)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H119" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K119), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L119), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M119), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N119), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O119), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v/>
       </c>
       <c r="I119" s="0" t="str">
         <f aca="false">IF(J119="", "collectie:eigen", J119)</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J119" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K119), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L119), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M119), "", "collectie:pop_regulation|"),IF(ISBLANK(N119), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O119), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="K119" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P119" s="0" t="s">
         <v>462</v>
@@ -6093,7 +6096,7 @@
         <v>464</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>465</v>
@@ -6126,26 +6129,29 @@
         <v>468</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>469</v>
       </c>
       <c r="G121" s="0" t="str">
         <f aca="false">IF(H121="", "zorgwekkende_stof:eigen", H121)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H121" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K121), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L121), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M121), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N121), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O121), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I121" s="0" t="str">
         <f aca="false">IF(J121="", "collectie:eigen", J121)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J121" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K121), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L121), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M121), "", "collectie:pop_regulation|"),IF(ISBLANK(N121), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O121), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:reach_svhcc_candidate_list|</v>
+      </c>
+      <c r="N121" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P121" s="0" t="s">
         <v>470</v>
@@ -6154,33 +6160,33 @@
         <v>471</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
         <v>472</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>473</v>
       </c>
       <c r="G122" s="0" t="str">
         <f aca="false">IF(H122="", "zorgwekkende_stof:eigen", H122)</f>
-        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H122" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K122), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L122), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M122), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N122), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O122), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="I122" s="0" t="str">
         <f aca="false">IF(J122="", "collectie:eigen", J122)</f>
-        <v>collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:c_l_harmonized_classification|</v>
       </c>
       <c r="J122" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K122), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L122), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M122), "", "collectie:pop_regulation|"),IF(ISBLANK(N122), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O122), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="N122" s="0" t="n">
+        <v>collectie:c_l_harmonized_classification|</v>
+      </c>
+      <c r="K122" s="0" t="n">
         <v>1</v>
       </c>
       <c r="P122" s="0" t="s">
@@ -6190,34 +6196,31 @@
         <v>475</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
         <v>476</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>477</v>
       </c>
       <c r="G123" s="0" t="str">
         <f aca="false">IF(H123="", "zorgwekkende_stof:eigen", H123)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H123" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K123), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L123), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M123), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N123), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O123), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v/>
       </c>
       <c r="I123" s="0" t="str">
         <f aca="false">IF(J123="", "collectie:eigen", J123)</f>
-        <v>collectie:c_l_harmonized_classification|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J123" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K123), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L123), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M123), "", "collectie:pop_regulation|"),IF(ISBLANK(N123), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O123), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|</v>
-      </c>
-      <c r="K123" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P123" s="0" t="s">
         <v>478</v>
@@ -6231,7 +6234,7 @@
         <v>480</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>481</v>
@@ -6264,68 +6267,68 @@
         <v>484</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>485</v>
       </c>
       <c r="G125" s="0" t="str">
         <f aca="false">IF(H125="", "zorgwekkende_stof:eigen", H125)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H125" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K125), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L125), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M125), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N125), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O125), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I125" s="0" t="str">
         <f aca="false">IF(J125="", "collectie:eigen", J125)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J125" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K125), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L125), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M125), "", "collectie:pop_regulation|"),IF(ISBLANK(N125), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O125), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+      </c>
+      <c r="K125" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P125" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q125" s="0" t="s">
         <v>486</v>
-      </c>
-      <c r="Q125" s="0" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="G126" s="0" t="str">
         <f aca="false">IF(H126="", "zorgwekkende_stof:eigen", H126)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H126" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K126), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L126), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M126), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N126), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O126), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v/>
       </c>
       <c r="I126" s="0" t="str">
         <f aca="false">IF(J126="", "collectie:eigen", J126)</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J126" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K126), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L126), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M126), "", "collectie:pop_regulation|"),IF(ISBLANK(N126), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O126), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="K126" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P126" s="0" t="s">
-        <v>354</v>
+        <v>489</v>
       </c>
       <c r="Q126" s="0" t="s">
         <v>490</v>
@@ -6336,7 +6339,7 @@
         <v>491</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>492</v>
@@ -6369,26 +6372,29 @@
         <v>495</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>496</v>
       </c>
       <c r="G128" s="0" t="str">
         <f aca="false">IF(H128="", "zorgwekkende_stof:eigen", H128)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H128" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K128), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L128), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M128), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N128), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O128), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I128" s="0" t="str">
         <f aca="false">IF(J128="", "collectie:eigen", J128)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J128" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K128), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L128), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M128), "", "collectie:pop_regulation|"),IF(ISBLANK(N128), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O128), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:reach_svhcc_candidate_list|</v>
+      </c>
+      <c r="N128" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P128" s="0" t="s">
         <v>497</v>
@@ -6402,29 +6408,26 @@
         <v>499</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>500</v>
       </c>
       <c r="G129" s="0" t="str">
         <f aca="false">IF(H129="", "zorgwekkende_stof:eigen", H129)</f>
-        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H129" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K129), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L129), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M129), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N129), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O129), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v/>
       </c>
       <c r="I129" s="0" t="str">
         <f aca="false">IF(J129="", "collectie:eigen", J129)</f>
-        <v>collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J129" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K129), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L129), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M129), "", "collectie:pop_regulation|"),IF(ISBLANK(N129), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O129), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="N129" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P129" s="0" t="s">
         <v>501</v>
@@ -6438,7 +6441,7 @@
         <v>503</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>504</v>
@@ -6471,26 +6474,29 @@
         <v>507</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>508</v>
       </c>
       <c r="G131" s="0" t="str">
         <f aca="false">IF(H131="", "zorgwekkende_stof:eigen", H131)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H131" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K131), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L131), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M131), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N131), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O131), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="I131" s="0" t="str">
         <f aca="false">IF(J131="", "collectie:eigen", J131)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:c_l_harmonized_classification|</v>
       </c>
       <c r="J131" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K131), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L131), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M131), "", "collectie:pop_regulation|"),IF(ISBLANK(N131), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O131), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:c_l_harmonized_classification|</v>
+      </c>
+      <c r="K131" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P131" s="0" t="s">
         <v>509</v>
@@ -6504,28 +6510,31 @@
         <v>511</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>512</v>
       </c>
       <c r="G132" s="0" t="str">
         <f aca="false">IF(H132="", "zorgwekkende_stof:eigen", H132)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H132" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K132), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L132), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M132), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N132), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O132), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I132" s="0" t="str">
         <f aca="false">IF(J132="", "collectie:eigen", J132)</f>
-        <v>collectie:c_l_harmonized_classification|</v>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J132" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K132), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L132), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M132), "", "collectie:pop_regulation|"),IF(ISBLANK(N132), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O132), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|</v>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="K132" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" s="0" t="n">
         <v>1</v>
       </c>
       <c r="P132" s="0" t="s">
@@ -6540,32 +6549,26 @@
         <v>515</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>516</v>
       </c>
       <c r="G133" s="0" t="str">
         <f aca="false">IF(H133="", "zorgwekkende_stof:eigen", H133)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H133" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K133), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L133), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M133), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N133), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O133), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v/>
       </c>
       <c r="I133" s="0" t="str">
         <f aca="false">IF(J133="", "collectie:eigen", J133)</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J133" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K133), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L133), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M133), "", "collectie:pop_regulation|"),IF(ISBLANK(N133), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O133), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="K133" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P133" s="0" t="s">
         <v>517</v>
@@ -6574,31 +6577,34 @@
         <v>518</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
         <v>519</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>520</v>
       </c>
       <c r="G134" s="0" t="str">
         <f aca="false">IF(H134="", "zorgwekkende_stof:eigen", H134)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H134" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K134), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L134), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M134), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N134), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O134), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="I134" s="0" t="str">
         <f aca="false">IF(J134="", "collectie:eigen", J134)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:c_l_harmonized_classification|</v>
       </c>
       <c r="J134" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K134), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L134), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M134), "", "collectie:pop_regulation|"),IF(ISBLANK(N134), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O134), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:c_l_harmonized_classification|</v>
+      </c>
+      <c r="K134" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P134" s="0" t="s">
         <v>521</v>
@@ -6607,34 +6613,31 @@
         <v>522</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
         <v>523</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>524</v>
       </c>
       <c r="G135" s="0" t="str">
         <f aca="false">IF(H135="", "zorgwekkende_stof:eigen", H135)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H135" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K135), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L135), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M135), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N135), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O135), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v/>
       </c>
       <c r="I135" s="0" t="str">
         <f aca="false">IF(J135="", "collectie:eigen", J135)</f>
-        <v>collectie:c_l_harmonized_classification|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J135" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K135), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L135), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M135), "", "collectie:pop_regulation|"),IF(ISBLANK(N135), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O135), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|</v>
-      </c>
-      <c r="K135" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P135" s="0" t="s">
         <v>525</v>
@@ -6648,26 +6651,32 @@
         <v>527</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>528</v>
       </c>
       <c r="G136" s="0" t="str">
         <f aca="false">IF(H136="", "zorgwekkende_stof:eigen", H136)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H136" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K136), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L136), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M136), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N136), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O136), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I136" s="0" t="str">
         <f aca="false">IF(J136="", "collectie:eigen", J136)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J136" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K136), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L136), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M136), "", "collectie:pop_regulation|"),IF(ISBLANK(N136), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O136), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+      </c>
+      <c r="K136" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P136" s="0" t="s">
         <v>529</v>
@@ -6681,7 +6690,7 @@
         <v>531</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>532</v>
@@ -6720,32 +6729,26 @@
         <v>535</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>536</v>
       </c>
       <c r="G138" s="0" t="str">
         <f aca="false">IF(H138="", "zorgwekkende_stof:eigen", H138)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H138" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K138), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L138), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M138), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N138), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O138), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v/>
       </c>
       <c r="I138" s="0" t="str">
         <f aca="false">IF(J138="", "collectie:eigen", J138)</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J138" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K138), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L138), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M138), "", "collectie:pop_regulation|"),IF(ISBLANK(N138), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O138), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="K138" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P138" s="0" t="s">
         <v>537</v>
@@ -6759,26 +6762,29 @@
         <v>539</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>540</v>
       </c>
       <c r="G139" s="0" t="str">
         <f aca="false">IF(H139="", "zorgwekkende_stof:eigen", H139)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="H139" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K139), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L139), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M139), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N139), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O139), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
       </c>
       <c r="I139" s="0" t="str">
         <f aca="false">IF(J139="", "collectie:eigen", J139)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:c_l_harmonized_classification|</v>
       </c>
       <c r="J139" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K139), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L139), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M139), "", "collectie:pop_regulation|"),IF(ISBLANK(N139), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O139), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:c_l_harmonized_classification|</v>
+      </c>
+      <c r="K139" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P139" s="0" t="s">
         <v>541</v>
@@ -6792,28 +6798,31 @@
         <v>543</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>544</v>
       </c>
       <c r="G140" s="0" t="str">
         <f aca="false">IF(H140="", "zorgwekkende_stof:eigen", H140)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H140" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K140), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L140), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M140), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N140), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O140), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I140" s="0" t="str">
         <f aca="false">IF(J140="", "collectie:eigen", J140)</f>
-        <v>collectie:c_l_harmonized_classification|</v>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J140" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K140), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L140), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M140), "", "collectie:pop_regulation|"),IF(ISBLANK(N140), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O140), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|</v>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="K140" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" s="0" t="n">
         <v>1</v>
       </c>
       <c r="P140" s="0" t="s">
@@ -6828,32 +6837,26 @@
         <v>547</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>548</v>
       </c>
       <c r="G141" s="0" t="str">
         <f aca="false">IF(H141="", "zorgwekkende_stof:eigen", H141)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H141" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K141), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L141), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M141), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N141), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O141), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v/>
       </c>
       <c r="I141" s="0" t="str">
         <f aca="false">IF(J141="", "collectie:eigen", J141)</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J141" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K141), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L141), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M141), "", "collectie:pop_regulation|"),IF(ISBLANK(N141), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O141), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="K141" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P141" s="0" t="s">
         <v>549</v>
@@ -6867,7 +6870,7 @@
         <v>551</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>552</v>
@@ -6900,26 +6903,29 @@
         <v>555</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>556</v>
       </c>
       <c r="G143" s="0" t="str">
         <f aca="false">IF(H143="", "zorgwekkende_stof:eigen", H143)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H143" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K143), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L143), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M143), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N143), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O143), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I143" s="0" t="str">
         <f aca="false">IF(J143="", "collectie:eigen", J143)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J143" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K143), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L143), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M143), "", "collectie:pop_regulation|"),IF(ISBLANK(N143), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O143), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:reach_svhcc_candidate_list|</v>
+      </c>
+      <c r="N143" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P143" s="0" t="s">
         <v>557</v>
@@ -6933,29 +6939,26 @@
         <v>559</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>560</v>
       </c>
       <c r="G144" s="0" t="str">
         <f aca="false">IF(H144="", "zorgwekkende_stof:eigen", H144)</f>
-        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v>zorgwekkende_stof:eigen</v>
       </c>
       <c r="H144" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K144), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L144), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M144), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N144), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O144), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:reach_svhcc_candidate_list|</v>
+        <v/>
       </c>
       <c r="I144" s="0" t="str">
         <f aca="false">IF(J144="", "collectie:eigen", J144)</f>
-        <v>collectie:reach_svhcc_candidate_list|</v>
+        <v>collectie:eigen</v>
       </c>
       <c r="J144" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K144), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L144), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M144), "", "collectie:pop_regulation|"),IF(ISBLANK(N144), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O144), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="N144" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P144" s="0" t="s">
         <v>561</v>
@@ -6964,12 +6967,12 @@
         <v>562</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
         <v>563</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>564</v>
@@ -6997,31 +7000,37 @@
         <v>566</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
         <v>567</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>568</v>
       </c>
       <c r="G146" s="0" t="str">
         <f aca="false">IF(H146="", "zorgwekkende_stof:eigen", H146)</f>
-        <v>zorgwekkende_stof:eigen</v>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="H146" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K146), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L146), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M146), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N146), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O146), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v/>
+        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
       </c>
       <c r="I146" s="0" t="str">
         <f aca="false">IF(J146="", "collectie:eigen", J146)</f>
-        <v>collectie:eigen</v>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
       </c>
       <c r="J146" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K146), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L146), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M146), "", "collectie:pop_regulation|"),IF(ISBLANK(N146), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O146), "", "collectie:uba_pmt|"))</f>
-        <v/>
+        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
+      </c>
+      <c r="K146" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="P146" s="0" t="s">
         <v>569</v>
@@ -7035,7 +7044,7 @@
         <v>571</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>572</v>
@@ -7069,37 +7078,19 @@
         <v>574</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
         <v>575</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="G148" s="0" t="str">
-        <f aca="false">IF(H148="", "zorgwekkende_stof:eigen", H148)</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="H148" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K148), "", "zorgwekkende_stof:c_l_harmonized_classification|"),IF(ISBLANK(L148), "", "zorgwekkende_stof:edlists_org_list_i|"),IF(ISBLANK(M148), "", "zorgwekkende_stof:pop_regulation|"),IF(ISBLANK(N148), "", "zorgwekkende_stof:reach_svhcc_candidate_list|"),IF(ISBLANK(O148), "", "zorgwekkende_stof:uba_pmt|"))</f>
-        <v>zorgwekkende_stof:c_l_harmonized_classification|zorgwekkende_stof:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="I148" s="0" t="str">
-        <f aca="false">IF(J148="", "collectie:eigen", J148)</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
-      </c>
       <c r="J148" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K148), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L148), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M148), "", "collectie:pop_regulation|"),IF(ISBLANK(N148), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O148), "", "collectie:uba_pmt|"))</f>
-        <v>collectie:c_l_harmonized_classification|collectie:reach_svhcc_candidate_list|</v>
-      </c>
-      <c r="K148" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" s="0" t="n">
-        <v>1</v>
+        <v/>
       </c>
       <c r="P148" s="0" t="s">
         <v>577</v>
@@ -7108,12 +7099,12 @@
         <v>578</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
         <v>579</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>580</v>
@@ -7134,7 +7125,7 @@
         <v>583</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>584</v>
@@ -7148,195 +7139,6 @@
       </c>
       <c r="Q150" s="0" t="s">
         <v>586</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="J151" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K151), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L151), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M151), "", "collectie:pop_regulation|"),IF(ISBLANK(N151), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O151), "", "collectie:uba_pmt|"))</f>
-        <v/>
-      </c>
-      <c r="P151" s="0" t="s">
-        <v>589</v>
-      </c>
-      <c r="Q151" s="0" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J152" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K152), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L152), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M152), "", "collectie:pop_regulation|"),IF(ISBLANK(N152), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O152), "", "collectie:uba_pmt|"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J153" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K153), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L153), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M153), "", "collectie:pop_regulation|"),IF(ISBLANK(N153), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O153), "", "collectie:uba_pmt|"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J154" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K154), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L154), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M154), "", "collectie:pop_regulation|"),IF(ISBLANK(N154), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O154), "", "collectie:uba_pmt|"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J155" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K155), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L155), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M155), "", "collectie:pop_regulation|"),IF(ISBLANK(N155), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O155), "", "collectie:uba_pmt|"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J156" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K156), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L156), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M156), "", "collectie:pop_regulation|"),IF(ISBLANK(N156), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O156), "", "collectie:uba_pmt|"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J157" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K157), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L157), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M157), "", "collectie:pop_regulation|"),IF(ISBLANK(N157), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O157), "", "collectie:uba_pmt|"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J158" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K158), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L158), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M158), "", "collectie:pop_regulation|"),IF(ISBLANK(N158), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O158), "", "collectie:uba_pmt|"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J159" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K159), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L159), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M159), "", "collectie:pop_regulation|"),IF(ISBLANK(N159), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O159), "", "collectie:uba_pmt|"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J160" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K160), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L160), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M160), "", "collectie:pop_regulation|"),IF(ISBLANK(N160), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O160), "", "collectie:uba_pmt|"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J161" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K161), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L161), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M161), "", "collectie:pop_regulation|"),IF(ISBLANK(N161), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O161), "", "collectie:uba_pmt|"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J162" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K162), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L162), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M162), "", "collectie:pop_regulation|"),IF(ISBLANK(N162), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O162), "", "collectie:uba_pmt|"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J163" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K163), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L163), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M163), "", "collectie:pop_regulation|"),IF(ISBLANK(N163), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O163), "", "collectie:uba_pmt|"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J164" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K164), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L164), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M164), "", "collectie:pop_regulation|"),IF(ISBLANK(N164), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O164), "", "collectie:uba_pmt|"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J165" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K165), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L165), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M165), "", "collectie:pop_regulation|"),IF(ISBLANK(N165), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O165), "", "collectie:uba_pmt|"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J166" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K166), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L166), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M166), "", "collectie:pop_regulation|"),IF(ISBLANK(N166), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O166), "", "collectie:uba_pmt|"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J167" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K167), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L167), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M167), "", "collectie:pop_regulation|"),IF(ISBLANK(N167), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O167), "", "collectie:uba_pmt|"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J168" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K168), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L168), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M168), "", "collectie:pop_regulation|"),IF(ISBLANK(N168), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O168), "", "collectie:uba_pmt|"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J169" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K169), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L169), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M169), "", "collectie:pop_regulation|"),IF(ISBLANK(N169), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O169), "", "collectie:uba_pmt|"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J170" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K170), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L170), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M170), "", "collectie:pop_regulation|"),IF(ISBLANK(N170), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O170), "", "collectie:uba_pmt|"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J171" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K171), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L171), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M171), "", "collectie:pop_regulation|"),IF(ISBLANK(N171), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O171), "", "collectie:uba_pmt|"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J172" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K172), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L172), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M172), "", "collectie:pop_regulation|"),IF(ISBLANK(N172), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O172), "", "collectie:uba_pmt|"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J173" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K173), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L173), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M173), "", "collectie:pop_regulation|"),IF(ISBLANK(N173), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O173), "", "collectie:uba_pmt|"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J174" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K174), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L174), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M174), "", "collectie:pop_regulation|"),IF(ISBLANK(N174), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O174), "", "collectie:uba_pmt|"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J175" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K175), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L175), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M175), "", "collectie:pop_regulation|"),IF(ISBLANK(N175), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O175), "", "collectie:uba_pmt|"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J176" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K176), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L176), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M176), "", "collectie:pop_regulation|"),IF(ISBLANK(N176), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O176), "", "collectie:uba_pmt|"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J177" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K177), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L177), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M177), "", "collectie:pop_regulation|"),IF(ISBLANK(N177), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O177), "", "collectie:uba_pmt|"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J178" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K178), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L178), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M178), "", "collectie:pop_regulation|"),IF(ISBLANK(N178), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O178), "", "collectie:uba_pmt|"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J179" s="0" t="str">
-        <f aca="false">_xlfn.CONCAT(IF(ISBLANK(K179), "", "collectie:c_l_harmonized_classification|"),IF(ISBLANK(L179), "", "collectie:edlists_org_list_i|"),IF(ISBLANK(M179), "", "collectie:pop_regulation|"),IF(ISBLANK(N179), "", "collectie:reach_svhcc_candidate_list|"),IF(ISBLANK(O179), "", "collectie:uba_pmt|"))</f>
-        <v/>
       </c>
     </row>
   </sheetData>

--- a/src/source/codelijst-source.xlsx
+++ b/src/source/codelijst-source.xlsx
@@ -64,10 +64,10 @@
     <t xml:space="preserve">REACH SVHC Candidate list</t>
   </si>
   <si>
-    <t xml:space="preserve">EC_No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAS_Nr</t>
+    <t xml:space="preserve">ecNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">casNumber</t>
   </si>
   <si>
     <t xml:space="preserve">conceptscheme:zorgwekkende_stof</t>
@@ -1790,7 +1790,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1817,6 +1817,19 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9876AA"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9876AA"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1895,7 +1908,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1904,7 +1917,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1918,6 +1939,66 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Standaard_UseCase_ZS_1_Startlijst" xfId="20"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF9876AA"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1928,8 +2009,8 @@
   </sheetPr>
   <dimension ref="A1:Q150"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1940,7 +2021,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="51.06"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1983,10 +2064,10 @@
       <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2033,7 +2114,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -2048,7 +2129,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="0" t="s">
@@ -2147,16 +2228,16 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="G11" s="0" t="str">
@@ -2183,16 +2264,16 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G12" s="0" t="str">
@@ -2225,16 +2306,16 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G13" s="0" t="str">
@@ -2264,16 +2345,16 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="0" t="str">
@@ -2303,16 +2384,16 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G15" s="0" t="str">
@@ -2339,16 +2420,16 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="4" t="s">
         <v>49</v>
       </c>
       <c r="G16" s="0" t="str">
@@ -2378,16 +2459,16 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="4" t="s">
         <v>53</v>
       </c>
       <c r="G17" s="0" t="str">
@@ -2417,16 +2498,16 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="4" t="s">
         <v>57</v>
       </c>
       <c r="G18" s="0" t="str">
@@ -2453,16 +2534,16 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="4" t="s">
         <v>61</v>
       </c>
       <c r="G19" s="0" t="str">
@@ -2495,16 +2576,16 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="4" t="s">
         <v>65</v>
       </c>
       <c r="G20" s="0" t="str">
@@ -2534,16 +2615,16 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="4" t="s">
         <v>69</v>
       </c>
       <c r="G21" s="0" t="str">
@@ -2570,16 +2651,16 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="4" t="s">
         <v>73</v>
       </c>
       <c r="G22" s="0" t="str">
@@ -2609,16 +2690,16 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="4" t="s">
         <v>77</v>
       </c>
       <c r="G23" s="0" t="str">
@@ -2648,16 +2729,16 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="4" t="s">
         <v>81</v>
       </c>
       <c r="G24" s="0" t="str">
@@ -2684,16 +2765,16 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="4" t="s">
         <v>85</v>
       </c>
       <c r="G25" s="0" t="str">
@@ -2720,16 +2801,16 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="4" t="s">
         <v>89</v>
       </c>
       <c r="G26" s="0" t="str">
@@ -2756,16 +2837,16 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="4" t="s">
         <v>93</v>
       </c>
       <c r="G27" s="0" t="str">
@@ -2795,16 +2876,16 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="4" t="s">
         <v>97</v>
       </c>
       <c r="G28" s="0" t="str">
@@ -2831,16 +2912,16 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="4" t="s">
         <v>101</v>
       </c>
       <c r="G29" s="0" t="str">
@@ -2876,16 +2957,16 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="4" t="s">
         <v>105</v>
       </c>
       <c r="G30" s="0" t="str">
@@ -2918,16 +2999,16 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="4" t="s">
         <v>109</v>
       </c>
       <c r="G31" s="0" t="str">
@@ -2954,16 +3035,16 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="4" t="s">
         <v>113</v>
       </c>
       <c r="G32" s="0" t="str">
@@ -2990,16 +3071,16 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="4" t="s">
         <v>117</v>
       </c>
       <c r="G33" s="0" t="str">
@@ -3026,16 +3107,16 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="4" t="s">
         <v>121</v>
       </c>
       <c r="G34" s="0" t="str">
@@ -3068,16 +3149,16 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="4" t="s">
         <v>125</v>
       </c>
       <c r="G35" s="0" t="str">
@@ -3107,16 +3188,16 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="4" t="s">
         <v>129</v>
       </c>
       <c r="G36" s="0" t="str">
@@ -3146,16 +3227,16 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="4" t="s">
         <v>133</v>
       </c>
       <c r="G37" s="0" t="str">
@@ -3185,16 +3266,16 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E38" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="4" t="s">
         <v>137</v>
       </c>
       <c r="G38" s="0" t="str">
@@ -3221,16 +3302,16 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="4" t="s">
         <v>141</v>
       </c>
       <c r="G39" s="0" t="str">
@@ -3257,16 +3338,16 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E40" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="4" t="s">
         <v>145</v>
       </c>
       <c r="G40" s="0" t="str">
@@ -3296,16 +3377,16 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E41" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="4" t="s">
         <v>149</v>
       </c>
       <c r="G41" s="0" t="str">
@@ -3332,16 +3413,16 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E42" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="4" t="s">
         <v>153</v>
       </c>
       <c r="G42" s="0" t="str">
@@ -3368,13 +3449,13 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F43" s="2" t="s">
+      <c r="B43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>157</v>
       </c>
       <c r="G43" s="0" t="str">
@@ -3401,13 +3482,13 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F44" s="2" t="s">
+      <c r="B44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>161</v>
       </c>
       <c r="G44" s="0" t="str">
@@ -3437,13 +3518,13 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="2" t="s">
+      <c r="B45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>165</v>
       </c>
       <c r="G45" s="0" t="str">
@@ -3476,13 +3557,13 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F46" s="2" t="s">
+      <c r="B46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>169</v>
       </c>
       <c r="G46" s="0" t="str">
@@ -3518,13 +3599,13 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F47" s="2" t="s">
+      <c r="B47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>173</v>
       </c>
       <c r="G47" s="0" t="str">
@@ -3557,13 +3638,13 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" s="2" t="s">
+      <c r="B48" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>177</v>
       </c>
       <c r="G48" s="0" t="str">
@@ -3599,13 +3680,13 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F49" s="2" t="s">
+      <c r="B49" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>181</v>
       </c>
       <c r="G49" s="0" t="str">
@@ -3632,13 +3713,13 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F50" s="2" t="s">
+      <c r="B50" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>185</v>
       </c>
       <c r="G50" s="0" t="str">
@@ -3671,13 +3752,13 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F51" s="2" t="s">
+      <c r="B51" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>189</v>
       </c>
       <c r="G51" s="0" t="str">
@@ -3707,13 +3788,13 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F52" s="2" t="s">
+      <c r="B52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>193</v>
       </c>
       <c r="G52" s="0" t="str">
@@ -3740,13 +3821,13 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F53" s="2" t="s">
+      <c r="B53" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="4" t="s">
         <v>197</v>
       </c>
       <c r="G53" s="0" t="str">
@@ -3776,13 +3857,13 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F54" s="2" t="s">
+      <c r="B54" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F54" s="4" t="s">
         <v>201</v>
       </c>
       <c r="G54" s="0" t="str">
@@ -3815,13 +3896,13 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F55" s="2" t="s">
+      <c r="B55" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>205</v>
       </c>
       <c r="G55" s="0" t="str">
@@ -3854,13 +3935,13 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F56" s="2" t="s">
+      <c r="B56" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>209</v>
       </c>
       <c r="G56" s="0" t="str">
@@ -3887,13 +3968,13 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F57" s="2" t="s">
+      <c r="B57" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>213</v>
       </c>
       <c r="G57" s="0" t="str">
@@ -3923,13 +4004,13 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F58" s="2" t="s">
+      <c r="B58" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G58" s="0" t="str">
@@ -3959,13 +4040,13 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F59" s="2" t="s">
+      <c r="B59" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>221</v>
       </c>
       <c r="G59" s="0" t="str">
@@ -3998,13 +4079,13 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F60" s="2" t="s">
+      <c r="B60" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>225</v>
       </c>
       <c r="G60" s="0" t="str">
@@ -4031,13 +4112,13 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F61" s="2" t="s">
+      <c r="B61" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>229</v>
       </c>
       <c r="G61" s="0" t="str">
@@ -4067,13 +4148,13 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F62" s="2" t="s">
+      <c r="B62" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" s="4" t="s">
         <v>233</v>
       </c>
       <c r="G62" s="0" t="str">
@@ -4100,13 +4181,13 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F63" s="2" t="s">
+      <c r="B63" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>237</v>
       </c>
       <c r="G63" s="0" t="str">
@@ -4133,13 +4214,13 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F64" s="2" t="s">
+      <c r="B64" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>241</v>
       </c>
       <c r="G64" s="0" t="str">
@@ -4166,13 +4247,13 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F65" s="2" t="s">
+      <c r="B65" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>245</v>
       </c>
       <c r="G65" s="0" t="str">
@@ -4202,13 +4283,13 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F66" s="2" t="s">
+      <c r="B66" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>249</v>
       </c>
       <c r="G66" s="0" t="str">
@@ -4238,13 +4319,13 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F67" s="2" t="s">
+      <c r="B67" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="4" t="s">
         <v>253</v>
       </c>
       <c r="G67" s="0" t="str">
@@ -4271,13 +4352,13 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F68" s="2" t="s">
+      <c r="B68" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>257</v>
       </c>
       <c r="G68" s="0" t="str">
@@ -4313,13 +4394,13 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F69" s="2" t="s">
+      <c r="B69" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>261</v>
       </c>
       <c r="G69" s="0" t="str">
@@ -4346,13 +4427,13 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F70" s="2" t="s">
+      <c r="B70" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>265</v>
       </c>
       <c r="G70" s="0" t="str">
@@ -4379,13 +4460,13 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F71" s="2" t="s">
+      <c r="B71" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" s="4" t="s">
         <v>269</v>
       </c>
       <c r="G71" s="0" t="str">
@@ -4415,13 +4496,13 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F72" s="2" t="s">
+      <c r="B72" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>273</v>
       </c>
       <c r="G72" s="0" t="str">
@@ -4448,13 +4529,13 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F73" s="2" t="s">
+      <c r="B73" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>277</v>
       </c>
       <c r="G73" s="0" t="str">
@@ -4484,13 +4565,13 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F74" s="2" t="s">
+      <c r="B74" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>281</v>
       </c>
       <c r="G74" s="0" t="str">
@@ -4520,13 +4601,13 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F75" s="2" t="s">
+      <c r="B75" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>285</v>
       </c>
       <c r="G75" s="0" t="str">
@@ -4556,13 +4637,13 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F76" s="2" t="s">
+      <c r="B76" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>289</v>
       </c>
       <c r="G76" s="0" t="str">
@@ -4589,13 +4670,13 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F77" s="2" t="s">
+      <c r="B77" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>293</v>
       </c>
       <c r="G77" s="0" t="str">
@@ -4622,13 +4703,13 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F78" s="2" t="s">
+      <c r="B78" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F78" s="4" t="s">
         <v>297</v>
       </c>
       <c r="G78" s="0" t="str">
@@ -4655,13 +4736,13 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F79" s="2" t="s">
+      <c r="B79" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F79" s="4" t="s">
         <v>301</v>
       </c>
       <c r="G79" s="0" t="str">
@@ -4688,13 +4769,13 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F80" s="2" t="s">
+      <c r="B80" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F80" s="4" t="s">
         <v>305</v>
       </c>
       <c r="G80" s="0" t="str">
@@ -4724,13 +4805,13 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F81" s="2" t="s">
+      <c r="B81" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F81" s="4" t="s">
         <v>309</v>
       </c>
       <c r="G81" s="0" t="str">
@@ -4757,13 +4838,13 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F82" s="2" t="s">
+      <c r="B82" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F82" s="4" t="s">
         <v>313</v>
       </c>
       <c r="G82" s="0" t="str">
@@ -4796,13 +4877,13 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F83" s="2" t="s">
+      <c r="B83" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F83" s="4" t="s">
         <v>317</v>
       </c>
       <c r="G83" s="0" t="str">
@@ -4829,13 +4910,13 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F84" s="2" t="s">
+      <c r="B84" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>321</v>
       </c>
       <c r="G84" s="0" t="str">
@@ -4862,13 +4943,13 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F85" s="2" t="s">
+      <c r="B85" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F85" s="4" t="s">
         <v>325</v>
       </c>
       <c r="G85" s="0" t="str">
@@ -4895,13 +4976,13 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F86" s="2" t="s">
+      <c r="B86" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F86" s="4" t="s">
         <v>329</v>
       </c>
       <c r="G86" s="0" t="str">
@@ -4928,13 +5009,13 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F87" s="2" t="s">
+      <c r="B87" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>333</v>
       </c>
       <c r="G87" s="0" t="str">
@@ -4961,13 +5042,13 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F88" s="2" t="s">
+      <c r="B88" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F88" s="4" t="s">
         <v>337</v>
       </c>
       <c r="G88" s="0" t="str">
@@ -4994,13 +5075,13 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F89" s="2" t="s">
+      <c r="B89" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F89" s="4" t="s">
         <v>341</v>
       </c>
       <c r="G89" s="0" t="str">
@@ -5030,13 +5111,13 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F90" s="2" t="s">
+      <c r="B90" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F90" s="4" t="s">
         <v>345</v>
       </c>
       <c r="G90" s="0" t="str">
@@ -5066,13 +5147,13 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F91" s="2" t="s">
+      <c r="B91" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F91" s="4" t="s">
         <v>349</v>
       </c>
       <c r="G91" s="0" t="str">
@@ -5099,13 +5180,13 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F92" s="2" t="s">
+      <c r="B92" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F92" s="4" t="s">
         <v>353</v>
       </c>
       <c r="G92" s="0" t="str">
@@ -5135,13 +5216,13 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F93" s="2" t="s">
+      <c r="B93" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93" s="4" t="s">
         <v>357</v>
       </c>
       <c r="G93" s="0" t="str">
@@ -5168,13 +5249,13 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F94" s="2" t="s">
+      <c r="B94" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F94" s="4" t="s">
         <v>361</v>
       </c>
       <c r="G94" s="0" t="str">
@@ -5201,13 +5282,13 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F95" s="2" t="s">
+      <c r="B95" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F95" s="4" t="s">
         <v>365</v>
       </c>
       <c r="G95" s="0" t="str">
@@ -5240,13 +5321,13 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F96" s="2" t="s">
+      <c r="B96" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F96" s="4" t="s">
         <v>369</v>
       </c>
       <c r="G96" s="0" t="str">
@@ -5279,13 +5360,13 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F97" s="2" t="s">
+      <c r="B97" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F97" s="4" t="s">
         <v>373</v>
       </c>
       <c r="G97" s="0" t="str">
@@ -5312,13 +5393,13 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F98" s="2" t="s">
+      <c r="B98" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F98" s="4" t="s">
         <v>377</v>
       </c>
       <c r="G98" s="0" t="str">
@@ -5348,13 +5429,13 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F99" s="2" t="s">
+      <c r="B99" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F99" s="4" t="s">
         <v>381</v>
       </c>
       <c r="G99" s="0" t="str">
@@ -5384,13 +5465,13 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F100" s="2" t="s">
+      <c r="B100" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F100" s="4" t="s">
         <v>385</v>
       </c>
       <c r="G100" s="0" t="str">
@@ -5423,13 +5504,13 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F101" s="2" t="s">
+      <c r="B101" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" s="4" t="s">
         <v>389</v>
       </c>
       <c r="G101" s="0" t="str">
@@ -5456,13 +5537,13 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F102" s="2" t="s">
+      <c r="B102" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F102" s="4" t="s">
         <v>393</v>
       </c>
       <c r="G102" s="0" t="str">
@@ -5489,13 +5570,13 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F103" s="2" t="s">
+      <c r="B103" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F103" s="4" t="s">
         <v>397</v>
       </c>
       <c r="G103" s="0" t="str">
@@ -5522,13 +5603,13 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F104" s="2" t="s">
+      <c r="B104" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F104" s="4" t="s">
         <v>401</v>
       </c>
       <c r="G104" s="0" t="str">
@@ -5561,13 +5642,13 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F105" s="2" t="s">
+      <c r="B105" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F105" s="4" t="s">
         <v>405</v>
       </c>
       <c r="G105" s="0" t="str">
@@ -5597,13 +5678,13 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F106" s="2" t="s">
+      <c r="B106" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F106" s="4" t="s">
         <v>409</v>
       </c>
       <c r="G106" s="0" t="str">
@@ -5630,13 +5711,13 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F107" s="2" t="s">
+      <c r="B107" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F107" s="4" t="s">
         <v>413</v>
       </c>
       <c r="G107" s="0" t="str">
@@ -5663,13 +5744,13 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F108" s="2" t="s">
+      <c r="B108" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F108" s="4" t="s">
         <v>417</v>
       </c>
       <c r="G108" s="0" t="str">
@@ -5696,13 +5777,13 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F109" s="2" t="s">
+      <c r="B109" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F109" s="4" t="s">
         <v>421</v>
       </c>
       <c r="G109" s="0" t="str">
@@ -5732,13 +5813,13 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F110" s="2" t="s">
+      <c r="B110" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F110" s="4" t="s">
         <v>425</v>
       </c>
       <c r="G110" s="0" t="str">
@@ -5768,13 +5849,13 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F111" s="2" t="s">
+      <c r="B111" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F111" s="4" t="s">
         <v>429</v>
       </c>
       <c r="G111" s="0" t="str">
@@ -5801,13 +5882,13 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F112" s="2" t="s">
+      <c r="B112" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F112" s="4" t="s">
         <v>433</v>
       </c>
       <c r="G112" s="0" t="str">
@@ -5840,13 +5921,13 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F113" s="2" t="s">
+      <c r="B113" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F113" s="4" t="s">
         <v>437</v>
       </c>
       <c r="G113" s="0" t="str">
@@ -5879,13 +5960,13 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F114" s="2" t="s">
+      <c r="B114" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F114" s="4" t="s">
         <v>441</v>
       </c>
       <c r="G114" s="0" t="str">
@@ -5912,13 +5993,13 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F115" s="2" t="s">
+      <c r="B115" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F115" s="4" t="s">
         <v>445</v>
       </c>
       <c r="G115" s="0" t="str">
@@ -5945,13 +6026,13 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F116" s="2" t="s">
+      <c r="B116" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F116" s="4" t="s">
         <v>449</v>
       </c>
       <c r="G116" s="0" t="str">
@@ -5978,13 +6059,13 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F117" s="2" t="s">
+      <c r="B117" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F117" s="4" t="s">
         <v>453</v>
       </c>
       <c r="G117" s="0" t="str">
@@ -6020,13 +6101,13 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F118" s="2" t="s">
+      <c r="B118" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F118" s="4" t="s">
         <v>457</v>
       </c>
       <c r="G118" s="0" t="str">
@@ -6059,13 +6140,13 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="4" t="s">
         <v>460</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F119" s="2" t="s">
+      <c r="B119" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F119" s="4" t="s">
         <v>461</v>
       </c>
       <c r="G119" s="0" t="str">
@@ -6092,13 +6173,13 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F120" s="2" t="s">
+      <c r="B120" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F120" s="4" t="s">
         <v>465</v>
       </c>
       <c r="G120" s="0" t="str">
@@ -6125,13 +6206,13 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F121" s="2" t="s">
+      <c r="B121" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F121" s="4" t="s">
         <v>469</v>
       </c>
       <c r="G121" s="0" t="str">
@@ -6161,13 +6242,13 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F122" s="2" t="s">
+      <c r="B122" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F122" s="4" t="s">
         <v>473</v>
       </c>
       <c r="G122" s="0" t="str">
@@ -6197,13 +6278,13 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F123" s="2" t="s">
+      <c r="B123" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F123" s="4" t="s">
         <v>477</v>
       </c>
       <c r="G123" s="0" t="str">
@@ -6230,13 +6311,13 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F124" s="2" t="s">
+      <c r="B124" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F124" s="4" t="s">
         <v>481</v>
       </c>
       <c r="G124" s="0" t="str">
@@ -6263,13 +6344,13 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F125" s="2" t="s">
+      <c r="B125" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F125" s="4" t="s">
         <v>485</v>
       </c>
       <c r="G125" s="0" t="str">
@@ -6302,13 +6383,13 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F126" s="2" t="s">
+      <c r="B126" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F126" s="4" t="s">
         <v>488</v>
       </c>
       <c r="G126" s="0" t="str">
@@ -6335,13 +6416,13 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F127" s="2" t="s">
+      <c r="B127" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F127" s="4" t="s">
         <v>492</v>
       </c>
       <c r="G127" s="0" t="str">
@@ -6368,13 +6449,13 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F128" s="2" t="s">
+      <c r="B128" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F128" s="4" t="s">
         <v>496</v>
       </c>
       <c r="G128" s="0" t="str">
@@ -6404,13 +6485,13 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F129" s="2" t="s">
+      <c r="B129" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F129" s="4" t="s">
         <v>500</v>
       </c>
       <c r="G129" s="0" t="str">
@@ -6437,13 +6518,13 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F130" s="2" t="s">
+      <c r="B130" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F130" s="4" t="s">
         <v>504</v>
       </c>
       <c r="G130" s="0" t="str">
@@ -6470,13 +6551,13 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F131" s="2" t="s">
+      <c r="B131" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F131" s="4" t="s">
         <v>508</v>
       </c>
       <c r="G131" s="0" t="str">
@@ -6506,13 +6587,13 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F132" s="2" t="s">
+      <c r="B132" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F132" s="4" t="s">
         <v>512</v>
       </c>
       <c r="G132" s="0" t="str">
@@ -6545,13 +6626,13 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F133" s="2" t="s">
+      <c r="B133" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F133" s="4" t="s">
         <v>516</v>
       </c>
       <c r="G133" s="0" t="str">
@@ -6578,13 +6659,13 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F134" s="2" t="s">
+      <c r="B134" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F134" s="4" t="s">
         <v>520</v>
       </c>
       <c r="G134" s="0" t="str">
@@ -6614,13 +6695,13 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2" t="s">
+      <c r="A135" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F135" s="2" t="s">
+      <c r="B135" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F135" s="4" t="s">
         <v>524</v>
       </c>
       <c r="G135" s="0" t="str">
@@ -6647,13 +6728,13 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F136" s="2" t="s">
+      <c r="B136" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F136" s="4" t="s">
         <v>528</v>
       </c>
       <c r="G136" s="0" t="str">
@@ -6686,13 +6767,13 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F137" s="2" t="s">
+      <c r="B137" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F137" s="4" t="s">
         <v>532</v>
       </c>
       <c r="G137" s="0" t="str">
@@ -6725,13 +6806,13 @@
       </c>
     </row>
     <row r="138" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2" t="s">
+      <c r="A138" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F138" s="2" t="s">
+      <c r="B138" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F138" s="4" t="s">
         <v>536</v>
       </c>
       <c r="G138" s="0" t="str">
@@ -6758,13 +6839,13 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F139" s="2" t="s">
+      <c r="B139" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F139" s="4" t="s">
         <v>540</v>
       </c>
       <c r="G139" s="0" t="str">
@@ -6794,13 +6875,13 @@
       </c>
     </row>
     <row r="140" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F140" s="2" t="s">
+      <c r="B140" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F140" s="4" t="s">
         <v>544</v>
       </c>
       <c r="G140" s="0" t="str">
@@ -6833,13 +6914,13 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F141" s="2" t="s">
+      <c r="B141" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F141" s="4" t="s">
         <v>548</v>
       </c>
       <c r="G141" s="0" t="str">
@@ -6866,13 +6947,13 @@
       </c>
     </row>
     <row r="142" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F142" s="2" t="s">
+      <c r="B142" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F142" s="4" t="s">
         <v>552</v>
       </c>
       <c r="G142" s="0" t="str">
@@ -6899,13 +6980,13 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F143" s="2" t="s">
+      <c r="B143" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F143" s="4" t="s">
         <v>556</v>
       </c>
       <c r="G143" s="0" t="str">
@@ -6935,13 +7016,13 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F144" s="2" t="s">
+      <c r="B144" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F144" s="4" t="s">
         <v>560</v>
       </c>
       <c r="G144" s="0" t="str">
@@ -6968,13 +7049,13 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F145" s="2" t="s">
+      <c r="B145" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F145" s="4" t="s">
         <v>564</v>
       </c>
       <c r="G145" s="0" t="str">
@@ -7001,13 +7082,13 @@
       </c>
     </row>
     <row r="146" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="2" t="s">
+      <c r="A146" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="B146" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F146" s="2" t="s">
+      <c r="B146" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F146" s="4" t="s">
         <v>568</v>
       </c>
       <c r="G146" s="0" t="str">
@@ -7040,13 +7121,13 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F147" s="2" t="s">
+      <c r="B147" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F147" s="4" t="s">
         <v>572</v>
       </c>
       <c r="G147" s="0" t="str">
@@ -7079,13 +7160,13 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="2" t="s">
+      <c r="A148" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="B148" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F148" s="2" t="s">
+      <c r="B148" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F148" s="4" t="s">
         <v>576</v>
       </c>
       <c r="J148" s="0" t="str">
@@ -7100,13 +7181,13 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="2" t="s">
+      <c r="A149" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F149" s="2" t="s">
+      <c r="B149" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F149" s="4" t="s">
         <v>580</v>
       </c>
       <c r="J149" s="0" t="str">
@@ -7121,13 +7202,13 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F150" s="2" t="s">
+      <c r="B150" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F150" s="4" t="s">
         <v>584</v>
       </c>
       <c r="J150" s="0" t="str">
